--- a/public/images/text.xlsx
+++ b/public/images/text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="100" windowWidth="17340" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="2680" yWindow="-20100" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>A</t>
   </si>
@@ -49,6 +49,171 @@
   </si>
   <si>
     <t>16, 17, 18, 19, 20, 21</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out: </t>
+  </si>
+  <si>
+    <t>2, 3, 4, 5, 6, 7, 8, 9</t>
+  </si>
+  <si>
+    <t>1, 11, 18, 10</t>
+  </si>
+  <si>
+    <t>11, 12, 13, 14, 15, 16, 17, 18</t>
+  </si>
+  <si>
+    <t>1 to 6</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>7 to 12</t>
+  </si>
+  <si>
+    <t>1, 2, 11, 12</t>
+  </si>
+  <si>
+    <t>7+x, 10, 9, 8</t>
+  </si>
+  <si>
+    <t>6+x, 5, 4, 3</t>
+  </si>
+  <si>
+    <t>3, 10, 7, 6</t>
+  </si>
+  <si>
+    <t>IN:</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 6, 7, to 10</t>
+  </si>
+  <si>
+    <t>4+x, 5+x, 11, 21-x</t>
+  </si>
+  <si>
+    <t>11, 12, 13, 21-x</t>
+  </si>
+  <si>
+    <t>13, 14, 15, 20, 21</t>
+  </si>
+  <si>
+    <t>20-x, 15, 16, 17, 18, 19</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>1 to 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In: </t>
+  </si>
+  <si>
+    <t>5 to 8</t>
+  </si>
+  <si>
+    <t>9 to 12</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>1 to 5, 10, 11</t>
+  </si>
+  <si>
+    <t>5, 10-x, 9+x</t>
+  </si>
+  <si>
+    <t>5, 9, 8, 7, 6</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>0 to 3</t>
+  </si>
+  <si>
+    <t>4, 5, 6</t>
+  </si>
+  <si>
+    <t>7, 8, 9</t>
+  </si>
+  <si>
+    <t>2, 10, 1</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>1 to 5</t>
+  </si>
+  <si>
+    <t>3+x, 4+y, 6</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>5 6 7</t>
+  </si>
+  <si>
+    <t>8 to 10</t>
+  </si>
+  <si>
+    <t>11 to 13</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out </t>
+  </si>
+  <si>
+    <t>5 to 7</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>1 to 8</t>
+  </si>
+  <si>
+    <t>9 to ..</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 8</t>
+  </si>
+  <si>
+    <t>3, 4, 5, 6, 7, 8</t>
+  </si>
+  <si>
+    <t>9, 10, 11, 12 to 14</t>
   </si>
 </sst>
 </file>
@@ -100,8 +265,288 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="371">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -198,7 +643,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="371">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -244,6 +689,146 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -289,6 +874,146 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -618,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:M42"/>
+  <dimension ref="D1:M266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="I256" sqref="I256:J256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -680,11 +1405,11 @@
         <v>-2</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I39" si="2">G3/300 * 5</f>
+        <f t="shared" ref="I3:I66" si="2">G3/300 * 5</f>
         <v>0.78333333333333344</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J39" si="3">H3/300 * 5</f>
+        <f t="shared" ref="J3:J66" si="3">H3/300 * 5</f>
         <v>-3.3333333333333333E-2</v>
       </c>
     </row>
@@ -1583,6 +2308,14 @@
       <c r="E40" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I40" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="4:10">
       <c r="D41" t="s">
@@ -1591,10 +2324,5349 @@
       <c r="E41" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="I41" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="4:10">
       <c r="E42" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10">
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10">
+      <c r="E44" s="1">
+        <v>371</v>
+      </c>
+      <c r="F44" s="1">
+        <v>592</v>
+      </c>
+      <c r="G44" s="1">
+        <f>E44-371</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <f>-F44+592</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>625</v>
+      </c>
+      <c r="F45" s="1">
+        <v>333</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" ref="G45:G62" si="6">E45-371</f>
+        <v>254</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" ref="H45:H62" si="7">-F45+592</f>
+        <v>259</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="2"/>
+        <v>4.2333333333333334</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="3"/>
+        <v>4.3166666666666664</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10">
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>623</v>
+      </c>
+      <c r="F46" s="1">
+        <v>312</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="7"/>
+        <v>280</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="3"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10">
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>562</v>
+      </c>
+      <c r="F47" s="1">
+        <v>253</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="6"/>
+        <v>191</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="7"/>
+        <v>339</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="2"/>
+        <v>3.1833333333333336</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="3"/>
+        <v>5.6499999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10">
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48" s="1">
+        <v>455</v>
+      </c>
+      <c r="F48" s="1">
+        <v>253</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="7"/>
+        <v>339</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="3"/>
+        <v>5.6499999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10">
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1">
+        <v>371</v>
+      </c>
+      <c r="F49" s="1">
+        <v>334</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="7"/>
+        <v>258</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="3"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10">
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1">
+        <v>371</v>
+      </c>
+      <c r="F50" s="1">
+        <v>505</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="3"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10">
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1">
+        <v>455</v>
+      </c>
+      <c r="F51" s="1">
+        <v>592</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:10">
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1">
+        <v>566</v>
+      </c>
+      <c r="F52" s="1">
+        <v>592</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="6"/>
+        <v>195</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10">
+      <c r="D53">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1">
+        <v>623</v>
+      </c>
+      <c r="F53" s="1">
+        <v>531</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0166666666666666</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10">
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54" s="1">
+        <v>625</v>
+      </c>
+      <c r="F54" s="1">
+        <v>507</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="6"/>
+        <v>254</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="2"/>
+        <v>4.2333333333333334</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4166666666666665</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10">
+      <c r="D55">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1">
+        <v>579</v>
+      </c>
+      <c r="F55" s="1">
+        <v>335</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="6"/>
+        <v>208</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="7"/>
+        <v>257</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="2"/>
+        <v>3.4666666666666668</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="3"/>
+        <v>4.2833333333333332</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10">
+      <c r="D56">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1">
+        <v>542</v>
+      </c>
+      <c r="F56" s="1">
+        <v>300</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="6"/>
+        <v>171</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="7"/>
+        <v>292</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="3"/>
+        <v>4.8666666666666671</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10">
+      <c r="D57">
+        <v>13</v>
+      </c>
+      <c r="E57" s="1">
+        <v>478</v>
+      </c>
+      <c r="F57" s="1">
+        <v>300</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="7"/>
+        <v>292</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7833333333333334</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="3"/>
+        <v>4.8666666666666671</v>
+      </c>
+    </row>
+    <row r="58" spans="4:10">
+      <c r="D58">
+        <v>14</v>
+      </c>
+      <c r="E58" s="1">
+        <v>416</v>
+      </c>
+      <c r="F58" s="1">
+        <v>354</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="7"/>
+        <v>238</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" si="3"/>
+        <v>3.9666666666666668</v>
+      </c>
+    </row>
+    <row r="59" spans="4:10">
+      <c r="D59">
+        <v>15</v>
+      </c>
+      <c r="E59" s="1">
+        <v>416</v>
+      </c>
+      <c r="F59" s="1">
+        <v>485</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7833333333333334</v>
+      </c>
+    </row>
+    <row r="60" spans="4:10">
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60" s="1">
+        <v>476</v>
+      </c>
+      <c r="F60" s="1">
+        <v>544</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="61" spans="4:10">
+      <c r="D61">
+        <v>17</v>
+      </c>
+      <c r="E61" s="1">
+        <v>544</v>
+      </c>
+      <c r="F61" s="1">
+        <v>544</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="6"/>
+        <v>173</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8833333333333333</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="62" spans="4:10">
+      <c r="D62">
+        <v>18</v>
+      </c>
+      <c r="E62" s="1">
+        <v>579</v>
+      </c>
+      <c r="F62" s="1">
+        <v>507</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="6"/>
+        <v>208</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="I62" s="2">
+        <f t="shared" si="2"/>
+        <v>3.4666666666666668</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4166666666666665</v>
+      </c>
+    </row>
+    <row r="63" spans="4:10">
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:10">
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10">
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:10">
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
+        <v>454</v>
+      </c>
+      <c r="F66" s="1">
+        <v>592</v>
+      </c>
+      <c r="G66" s="1">
+        <f>E66-454</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <f>-F66+592</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10">
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" s="1">
+        <v>626</v>
+      </c>
+      <c r="F67" s="1">
+        <v>592</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" ref="G67:G78" si="8">E67-454</f>
+        <v>172</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" ref="H67:H77" si="9">-F67+592</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <f t="shared" ref="I67:J82" si="10">G67/300 * 5</f>
+        <v>2.8666666666666667</v>
+      </c>
+      <c r="J67" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10">
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68" s="1">
+        <v>704</v>
+      </c>
+      <c r="F68" s="1">
+        <v>507</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="I68" s="2">
+        <f t="shared" si="10"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="J68" s="2">
+        <f t="shared" si="10"/>
+        <v>1.4166666666666665</v>
+      </c>
+    </row>
+    <row r="69" spans="4:10">
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1">
+        <v>704</v>
+      </c>
+      <c r="F69" s="1">
+        <v>334</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" si="9"/>
+        <v>258</v>
+      </c>
+      <c r="I69" s="2">
+        <f t="shared" si="10"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="J69" s="2">
+        <f t="shared" si="10"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10">
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1">
+        <v>625</v>
+      </c>
+      <c r="F70" s="1">
+        <v>251</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="8"/>
+        <v>171</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="9"/>
+        <v>341</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" si="10"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="10"/>
+        <v>5.6833333333333336</v>
+      </c>
+    </row>
+    <row r="71" spans="4:10">
+      <c r="D71">
+        <v>6</v>
+      </c>
+      <c r="E71" s="1">
+        <v>454</v>
+      </c>
+      <c r="F71" s="1">
+        <v>251</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="9"/>
+        <v>341</v>
+      </c>
+      <c r="I71" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
+        <f t="shared" si="10"/>
+        <v>5.6833333333333336</v>
+      </c>
+    </row>
+    <row r="72" spans="4:10">
+      <c r="D72">
+        <v>7</v>
+      </c>
+      <c r="E72" s="1">
+        <v>500</v>
+      </c>
+      <c r="F72" s="1">
+        <v>544</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="I72" s="2">
+        <f t="shared" si="10"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="J72" s="2">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="73" spans="4:10">
+      <c r="D73">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1">
+        <v>605</v>
+      </c>
+      <c r="F73" s="1">
+        <v>544</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="8"/>
+        <v>151</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="I73" s="2">
+        <f t="shared" si="10"/>
+        <v>2.5166666666666666</v>
+      </c>
+      <c r="J73" s="2">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="74" spans="4:10">
+      <c r="D74">
+        <v>9</v>
+      </c>
+      <c r="E74" s="1">
+        <v>660</v>
+      </c>
+      <c r="F74" s="1">
+        <v>488</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="8"/>
+        <v>206</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="9"/>
+        <v>104</v>
+      </c>
+      <c r="I74" s="2">
+        <f t="shared" si="10"/>
+        <v>3.4333333333333331</v>
+      </c>
+      <c r="J74" s="2">
+        <f t="shared" si="10"/>
+        <v>1.7333333333333334</v>
+      </c>
+    </row>
+    <row r="75" spans="4:10">
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75" s="1">
+        <v>660</v>
+      </c>
+      <c r="F75" s="1">
+        <v>353</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="8"/>
+        <v>206</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="9"/>
+        <v>239</v>
+      </c>
+      <c r="I75" s="2">
+        <f t="shared" si="10"/>
+        <v>3.4333333333333331</v>
+      </c>
+      <c r="J75" s="2">
+        <f t="shared" si="10"/>
+        <v>3.9833333333333334</v>
+      </c>
+    </row>
+    <row r="76" spans="4:10">
+      <c r="D76">
+        <v>11</v>
+      </c>
+      <c r="E76" s="1">
+        <v>605</v>
+      </c>
+      <c r="F76" s="1">
+        <v>299</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="8"/>
+        <v>151</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="9"/>
+        <v>293</v>
+      </c>
+      <c r="I76" s="2">
+        <f t="shared" si="10"/>
+        <v>2.5166666666666666</v>
+      </c>
+      <c r="J76" s="2">
+        <f t="shared" si="10"/>
+        <v>4.8833333333333337</v>
+      </c>
+    </row>
+    <row r="77" spans="4:10">
+      <c r="D77">
+        <v>12</v>
+      </c>
+      <c r="E77" s="1">
+        <v>500</v>
+      </c>
+      <c r="F77" s="1">
+        <v>299</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="9"/>
+        <v>293</v>
+      </c>
+      <c r="I77" s="2">
+        <f t="shared" si="10"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="J77" s="2">
+        <f t="shared" si="10"/>
+        <v>4.8833333333333337</v>
+      </c>
+    </row>
+    <row r="78" spans="4:10">
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="4:10">
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="4:10">
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
+        <v>373</v>
+      </c>
+      <c r="F80" s="1">
+        <v>570</v>
+      </c>
+      <c r="G80" s="1">
+        <f>E80-373</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <f>-F80+570</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:10">
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" s="1">
+        <v>600</v>
+      </c>
+      <c r="F81" s="1">
+        <v>570</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" ref="G81:G91" si="11">E81-373</f>
+        <v>227</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" ref="H81:H91" si="12">-F81+570</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="2">
+        <f t="shared" si="10"/>
+        <v>3.7833333333333337</v>
+      </c>
+      <c r="J81" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:10">
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" s="1">
+        <v>600</v>
+      </c>
+      <c r="F82" s="1">
+        <v>524</v>
+      </c>
+      <c r="G82" s="1">
+        <f t="shared" si="11"/>
+        <v>227</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="12"/>
+        <v>46</v>
+      </c>
+      <c r="I82" s="2">
+        <f t="shared" si="10"/>
+        <v>3.7833333333333337</v>
+      </c>
+      <c r="J82" s="2">
+        <f t="shared" si="10"/>
+        <v>0.76666666666666661</v>
+      </c>
+    </row>
+    <row r="83" spans="4:10">
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83" s="1">
+        <v>422</v>
+      </c>
+      <c r="F83" s="1">
+        <v>524</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="12"/>
+        <v>46</v>
+      </c>
+      <c r="I83" s="2">
+        <f t="shared" ref="I83:J98" si="13">G83/300 * 5</f>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="J83" s="2">
+        <f t="shared" si="13"/>
+        <v>0.76666666666666661</v>
+      </c>
+    </row>
+    <row r="84" spans="4:10">
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84" s="1">
+        <v>422</v>
+      </c>
+      <c r="F84" s="1">
+        <v>418</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="12"/>
+        <v>152</v>
+      </c>
+      <c r="I84" s="2">
+        <f t="shared" si="13"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="J84" s="2">
+        <f t="shared" si="13"/>
+        <v>2.5333333333333337</v>
+      </c>
+    </row>
+    <row r="85" spans="4:10">
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85" s="1">
+        <v>530</v>
+      </c>
+      <c r="F85" s="1">
+        <v>418</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" si="11"/>
+        <v>157</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="12"/>
+        <v>152</v>
+      </c>
+      <c r="I85" s="2">
+        <f t="shared" si="13"/>
+        <v>2.6166666666666667</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" si="13"/>
+        <v>2.5333333333333337</v>
+      </c>
+    </row>
+    <row r="86" spans="4:10">
+      <c r="D86">
+        <v>7</v>
+      </c>
+      <c r="E86" s="1">
+        <v>530</v>
+      </c>
+      <c r="F86" s="1">
+        <v>372</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="11"/>
+        <v>157</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="12"/>
+        <v>198</v>
+      </c>
+      <c r="I86" s="2">
+        <f t="shared" si="13"/>
+        <v>2.6166666666666667</v>
+      </c>
+      <c r="J86" s="2">
+        <f t="shared" si="13"/>
+        <v>3.3000000000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="4:10">
+      <c r="D87">
+        <v>8</v>
+      </c>
+      <c r="E87" s="1">
+        <v>422</v>
+      </c>
+      <c r="F87" s="1">
+        <v>372</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" si="12"/>
+        <v>198</v>
+      </c>
+      <c r="I87" s="2">
+        <f t="shared" si="13"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="13"/>
+        <v>3.3000000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="4:10">
+      <c r="D88">
+        <v>9</v>
+      </c>
+      <c r="E88" s="1">
+        <v>422</v>
+      </c>
+      <c r="F88" s="1">
+        <v>278</v>
+      </c>
+      <c r="G88" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="H88" s="1">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="I88" s="2">
+        <f t="shared" si="13"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="J88" s="2">
+        <f t="shared" si="13"/>
+        <v>4.8666666666666671</v>
+      </c>
+    </row>
+    <row r="89" spans="4:10">
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89" s="1">
+        <v>600</v>
+      </c>
+      <c r="F89" s="1">
+        <v>278</v>
+      </c>
+      <c r="G89" s="1">
+        <f t="shared" si="11"/>
+        <v>227</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="I89" s="2">
+        <f t="shared" si="13"/>
+        <v>3.7833333333333337</v>
+      </c>
+      <c r="J89" s="2">
+        <f t="shared" si="13"/>
+        <v>4.8666666666666671</v>
+      </c>
+    </row>
+    <row r="90" spans="4:10">
+      <c r="D90">
+        <v>11</v>
+      </c>
+      <c r="E90" s="1">
+        <v>600</v>
+      </c>
+      <c r="F90" s="1">
+        <v>227</v>
+      </c>
+      <c r="G90" s="1">
+        <f t="shared" si="11"/>
+        <v>227</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" si="12"/>
+        <v>343</v>
+      </c>
+      <c r="I90" s="2">
+        <f t="shared" si="13"/>
+        <v>3.7833333333333337</v>
+      </c>
+      <c r="J90" s="2">
+        <f t="shared" si="13"/>
+        <v>5.7166666666666668</v>
+      </c>
+    </row>
+    <row r="91" spans="4:10">
+      <c r="D91">
+        <v>12</v>
+      </c>
+      <c r="E91" s="1">
+        <v>373</v>
+      </c>
+      <c r="F91" s="1">
+        <v>227</v>
+      </c>
+      <c r="G91" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="12"/>
+        <v>343</v>
+      </c>
+      <c r="I91" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="2">
+        <f t="shared" si="13"/>
+        <v>5.7166666666666668</v>
+      </c>
+    </row>
+    <row r="92" spans="4:10">
+      <c r="I92" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="4:10">
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="4:10">
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="4:10">
+      <c r="E95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:10">
+      <c r="E96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:10">
+      <c r="D97" t="s">
+        <v>23</v>
+      </c>
+      <c r="I97" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:10">
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>756</v>
+      </c>
+      <c r="F98" s="1">
+        <v>554</v>
+      </c>
+      <c r="G98" s="1">
+        <f>E98-756</f>
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <f>-F98+554</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="4:10">
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1">
+        <v>843</v>
+      </c>
+      <c r="F99" s="1">
+        <v>554</v>
+      </c>
+      <c r="G99" s="1">
+        <f t="shared" ref="G99:G119" si="14">E99-756</f>
+        <v>87</v>
+      </c>
+      <c r="H99" s="1">
+        <f t="shared" ref="H99:H119" si="15">-F99+554</f>
+        <v>0</v>
+      </c>
+      <c r="I99" s="2">
+        <f t="shared" ref="I99:J120" si="16">G99/300 * 5</f>
+        <v>1.45</v>
+      </c>
+      <c r="J99" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:10">
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1">
+        <v>949</v>
+      </c>
+      <c r="F100" s="1">
+        <v>554</v>
+      </c>
+      <c r="G100" s="1">
+        <f t="shared" si="14"/>
+        <v>193</v>
+      </c>
+      <c r="H100" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="2">
+        <f t="shared" si="16"/>
+        <v>3.2166666666666668</v>
+      </c>
+      <c r="J100" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="4:10">
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F101" s="1">
+        <v>488</v>
+      </c>
+      <c r="G101" s="1">
+        <f t="shared" si="14"/>
+        <v>254</v>
+      </c>
+      <c r="H101" s="1">
+        <f t="shared" si="15"/>
+        <v>66</v>
+      </c>
+      <c r="I101" s="2">
+        <f t="shared" si="16"/>
+        <v>4.2333333333333334</v>
+      </c>
+      <c r="J101" s="2">
+        <f t="shared" si="16"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="4:10">
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F102" s="1">
+        <v>380</v>
+      </c>
+      <c r="G102" s="1">
+        <f t="shared" si="14"/>
+        <v>254</v>
+      </c>
+      <c r="H102" s="1">
+        <f t="shared" si="15"/>
+        <v>174</v>
+      </c>
+      <c r="I102" s="2">
+        <f t="shared" si="16"/>
+        <v>4.2333333333333334</v>
+      </c>
+      <c r="J102" s="2">
+        <f t="shared" si="16"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="103" spans="4:10">
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F103" s="1">
+        <v>293</v>
+      </c>
+      <c r="G103" s="1">
+        <f t="shared" si="14"/>
+        <v>254</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" si="15"/>
+        <v>261</v>
+      </c>
+      <c r="I103" s="2">
+        <f t="shared" si="16"/>
+        <v>4.2333333333333334</v>
+      </c>
+      <c r="J103" s="2">
+        <f t="shared" si="16"/>
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="4:10">
+      <c r="D104">
+        <v>6</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F104" s="1">
+        <v>268</v>
+      </c>
+      <c r="G104" s="1">
+        <f t="shared" si="14"/>
+        <v>254</v>
+      </c>
+      <c r="H104" s="1">
+        <f t="shared" si="15"/>
+        <v>286</v>
+      </c>
+      <c r="I104" s="2">
+        <f t="shared" si="16"/>
+        <v>4.2333333333333334</v>
+      </c>
+      <c r="J104" s="2">
+        <f t="shared" si="16"/>
+        <v>4.7666666666666666</v>
+      </c>
+    </row>
+    <row r="105" spans="4:10">
+      <c r="D105">
+        <v>7</v>
+      </c>
+      <c r="E105" s="1">
+        <v>946</v>
+      </c>
+      <c r="F105" s="1">
+        <v>209</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="14"/>
+        <v>190</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="15"/>
+        <v>345</v>
+      </c>
+      <c r="I105" s="2">
+        <f t="shared" si="16"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="J105" s="2">
+        <f t="shared" si="16"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="106" spans="4:10">
+      <c r="D106">
+        <v>8</v>
+      </c>
+      <c r="E106" s="1">
+        <v>843</v>
+      </c>
+      <c r="F106" s="1">
+        <v>209</v>
+      </c>
+      <c r="G106" s="1">
+        <f t="shared" si="14"/>
+        <v>87</v>
+      </c>
+      <c r="H106" s="1">
+        <f t="shared" si="15"/>
+        <v>345</v>
+      </c>
+      <c r="I106" s="2">
+        <f t="shared" si="16"/>
+        <v>1.45</v>
+      </c>
+      <c r="J106" s="2">
+        <f t="shared" si="16"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="107" spans="4:10">
+      <c r="D107">
+        <v>9</v>
+      </c>
+      <c r="E107" s="1">
+        <v>756</v>
+      </c>
+      <c r="F107" s="1">
+        <v>293</v>
+      </c>
+      <c r="G107" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <f t="shared" si="15"/>
+        <v>261</v>
+      </c>
+      <c r="I107" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="2">
+        <f t="shared" si="16"/>
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="4:10">
+      <c r="D108">
+        <v>10</v>
+      </c>
+      <c r="E108" s="1">
+        <v>756</v>
+      </c>
+      <c r="F108" s="1">
+        <v>465</v>
+      </c>
+      <c r="G108" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <f t="shared" si="15"/>
+        <v>89</v>
+      </c>
+      <c r="I108" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="2">
+        <f t="shared" si="16"/>
+        <v>1.4833333333333334</v>
+      </c>
+    </row>
+    <row r="109" spans="4:10">
+      <c r="D109">
+        <v>11</v>
+      </c>
+      <c r="E109" s="1">
+        <v>964</v>
+      </c>
+      <c r="F109" s="1">
+        <v>291</v>
+      </c>
+      <c r="G109" s="1">
+        <f t="shared" si="14"/>
+        <v>208</v>
+      </c>
+      <c r="H109" s="1">
+        <f t="shared" si="15"/>
+        <v>263</v>
+      </c>
+      <c r="I109" s="2">
+        <f t="shared" si="16"/>
+        <v>3.4666666666666668</v>
+      </c>
+      <c r="J109" s="2">
+        <f t="shared" si="16"/>
+        <v>4.3833333333333337</v>
+      </c>
+    </row>
+    <row r="110" spans="4:10">
+      <c r="D110">
+        <v>12</v>
+      </c>
+      <c r="E110" s="1">
+        <v>929</v>
+      </c>
+      <c r="F110" s="1">
+        <v>256</v>
+      </c>
+      <c r="G110" s="1">
+        <f t="shared" si="14"/>
+        <v>173</v>
+      </c>
+      <c r="H110" s="1">
+        <f t="shared" si="15"/>
+        <v>298</v>
+      </c>
+      <c r="I110" s="2">
+        <f t="shared" si="16"/>
+        <v>2.8833333333333333</v>
+      </c>
+      <c r="J110" s="2">
+        <f t="shared" si="16"/>
+        <v>4.9666666666666668</v>
+      </c>
+    </row>
+    <row r="111" spans="4:10">
+      <c r="D111">
+        <v>13</v>
+      </c>
+      <c r="E111" s="1">
+        <v>863</v>
+      </c>
+      <c r="F111" s="1">
+        <v>256</v>
+      </c>
+      <c r="G111" s="1">
+        <f t="shared" si="14"/>
+        <v>107</v>
+      </c>
+      <c r="H111" s="1">
+        <f t="shared" si="15"/>
+        <v>298</v>
+      </c>
+      <c r="I111" s="2">
+        <f t="shared" si="16"/>
+        <v>1.7833333333333334</v>
+      </c>
+      <c r="J111" s="2">
+        <f t="shared" si="16"/>
+        <v>4.9666666666666668</v>
+      </c>
+    </row>
+    <row r="112" spans="4:10">
+      <c r="D112">
+        <v>14</v>
+      </c>
+      <c r="E112" s="1">
+        <v>805</v>
+      </c>
+      <c r="F112" s="1">
+        <v>313</v>
+      </c>
+      <c r="G112" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="H112" s="1">
+        <f t="shared" si="15"/>
+        <v>241</v>
+      </c>
+      <c r="I112" s="2">
+        <f t="shared" si="16"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="J112" s="2">
+        <f t="shared" si="16"/>
+        <v>4.0166666666666666</v>
+      </c>
+    </row>
+    <row r="113" spans="4:10">
+      <c r="D113">
+        <v>15</v>
+      </c>
+      <c r="E113" s="1">
+        <v>805</v>
+      </c>
+      <c r="F113" s="1">
+        <v>445</v>
+      </c>
+      <c r="G113" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="H113" s="1">
+        <f t="shared" si="15"/>
+        <v>109</v>
+      </c>
+      <c r="I113" s="2">
+        <f t="shared" si="16"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="J113" s="2">
+        <f t="shared" si="16"/>
+        <v>1.8166666666666667</v>
+      </c>
+    </row>
+    <row r="114" spans="4:10">
+      <c r="D114">
+        <v>16</v>
+      </c>
+      <c r="E114" s="1">
+        <v>861</v>
+      </c>
+      <c r="F114" s="1">
+        <v>502</v>
+      </c>
+      <c r="G114" s="1">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="H114" s="1">
+        <f t="shared" si="15"/>
+        <v>52</v>
+      </c>
+      <c r="I114" s="2">
+        <f t="shared" si="16"/>
+        <v>1.75</v>
+      </c>
+      <c r="J114" s="2">
+        <f t="shared" si="16"/>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="115" spans="4:10">
+      <c r="D115">
+        <v>17</v>
+      </c>
+      <c r="E115" s="1">
+        <v>929</v>
+      </c>
+      <c r="F115" s="1">
+        <v>502</v>
+      </c>
+      <c r="G115" s="1">
+        <f t="shared" si="14"/>
+        <v>173</v>
+      </c>
+      <c r="H115" s="1">
+        <f t="shared" si="15"/>
+        <v>52</v>
+      </c>
+      <c r="I115" s="2">
+        <f t="shared" si="16"/>
+        <v>2.8833333333333333</v>
+      </c>
+      <c r="J115" s="2">
+        <f t="shared" si="16"/>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="116" spans="4:10">
+      <c r="D116">
+        <v>18</v>
+      </c>
+      <c r="E116" s="1">
+        <v>964</v>
+      </c>
+      <c r="F116" s="1">
+        <v>468</v>
+      </c>
+      <c r="G116" s="1">
+        <f t="shared" si="14"/>
+        <v>208</v>
+      </c>
+      <c r="H116" s="1">
+        <f t="shared" si="15"/>
+        <v>86</v>
+      </c>
+      <c r="I116" s="2">
+        <f t="shared" si="16"/>
+        <v>3.4666666666666668</v>
+      </c>
+      <c r="J116" s="2">
+        <f t="shared" si="16"/>
+        <v>1.4333333333333333</v>
+      </c>
+    </row>
+    <row r="117" spans="4:10">
+      <c r="D117">
+        <v>19</v>
+      </c>
+      <c r="E117" s="1">
+        <v>964</v>
+      </c>
+      <c r="F117" s="1">
+        <v>423</v>
+      </c>
+      <c r="G117" s="1">
+        <f t="shared" si="14"/>
+        <v>208</v>
+      </c>
+      <c r="H117" s="1">
+        <f t="shared" si="15"/>
+        <v>131</v>
+      </c>
+      <c r="I117" s="2">
+        <f t="shared" si="16"/>
+        <v>3.4666666666666668</v>
+      </c>
+      <c r="J117" s="2">
+        <f t="shared" si="16"/>
+        <v>2.1833333333333331</v>
+      </c>
+    </row>
+    <row r="118" spans="4:10">
+      <c r="D118">
+        <v>20</v>
+      </c>
+      <c r="E118" s="1">
+        <v>920</v>
+      </c>
+      <c r="F118" s="1">
+        <v>423</v>
+      </c>
+      <c r="G118" s="1">
+        <f t="shared" si="14"/>
+        <v>164</v>
+      </c>
+      <c r="H118" s="1">
+        <f t="shared" si="15"/>
+        <v>131</v>
+      </c>
+      <c r="I118" s="2">
+        <f t="shared" si="16"/>
+        <v>2.7333333333333334</v>
+      </c>
+      <c r="J118" s="2">
+        <f t="shared" si="16"/>
+        <v>2.1833333333333331</v>
+      </c>
+    </row>
+    <row r="119" spans="4:10">
+      <c r="D119">
+        <v>21</v>
+      </c>
+      <c r="E119" s="1">
+        <v>920</v>
+      </c>
+      <c r="F119" s="1">
+        <v>380</v>
+      </c>
+      <c r="G119" s="1">
+        <f t="shared" si="14"/>
+        <v>164</v>
+      </c>
+      <c r="H119" s="1">
+        <f t="shared" si="15"/>
+        <v>174</v>
+      </c>
+      <c r="I119" s="2">
+        <f t="shared" si="16"/>
+        <v>2.7333333333333334</v>
+      </c>
+      <c r="J119" s="2">
+        <f t="shared" si="16"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="120" spans="4:10">
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I120" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="4:10">
+      <c r="D121" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I121" s="2">
+        <f t="shared" ref="I121:J138" si="17">G121/300 * 5</f>
+        <v>0</v>
+      </c>
+      <c r="J121" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="4:10">
+      <c r="E122" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I122" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="4:10">
+      <c r="E123" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I123" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="4:10">
+      <c r="E124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I124" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="4:10">
+      <c r="D125" t="s">
+        <v>29</v>
+      </c>
+      <c r="I125" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="4:10">
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1">
+        <v>190</v>
+      </c>
+      <c r="F126" s="1">
+        <v>656</v>
+      </c>
+      <c r="G126" s="1">
+        <f>E126-190</f>
+        <v>0</v>
+      </c>
+      <c r="H126" s="1">
+        <f>-F126+656</f>
+        <v>0</v>
+      </c>
+      <c r="I126" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="4:10">
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127" s="1">
+        <v>414</v>
+      </c>
+      <c r="F127" s="1">
+        <v>656</v>
+      </c>
+      <c r="G127" s="1">
+        <f t="shared" ref="G127:G137" si="18">E127-190</f>
+        <v>224</v>
+      </c>
+      <c r="H127" s="1">
+        <f t="shared" ref="H127:H137" si="19">-F127+656</f>
+        <v>0</v>
+      </c>
+      <c r="I127" s="2">
+        <f t="shared" si="17"/>
+        <v>3.7333333333333334</v>
+      </c>
+      <c r="J127" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="4:10">
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128" s="1">
+        <v>414</v>
+      </c>
+      <c r="F128" s="1">
+        <v>315</v>
+      </c>
+      <c r="G128" s="1">
+        <f t="shared" si="18"/>
+        <v>224</v>
+      </c>
+      <c r="H128" s="1">
+        <f t="shared" si="19"/>
+        <v>341</v>
+      </c>
+      <c r="I128" s="2">
+        <f t="shared" si="17"/>
+        <v>3.7333333333333334</v>
+      </c>
+      <c r="J128" s="2">
+        <f t="shared" si="17"/>
+        <v>5.6833333333333336</v>
+      </c>
+    </row>
+    <row r="129" spans="4:10">
+      <c r="D129">
+        <v>4</v>
+      </c>
+      <c r="E129" s="1">
+        <v>190</v>
+      </c>
+      <c r="F129" s="1">
+        <v>315</v>
+      </c>
+      <c r="G129" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H129" s="1">
+        <f t="shared" si="19"/>
+        <v>341</v>
+      </c>
+      <c r="I129" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="2">
+        <f t="shared" si="17"/>
+        <v>5.6833333333333336</v>
+      </c>
+    </row>
+    <row r="130" spans="4:10">
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130" s="1">
+        <v>239</v>
+      </c>
+      <c r="F130" s="1">
+        <v>668</v>
+      </c>
+      <c r="G130" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="H130" s="1">
+        <f t="shared" si="19"/>
+        <v>-12</v>
+      </c>
+      <c r="I130" s="2">
+        <f t="shared" si="17"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="J130" s="2">
+        <f t="shared" si="17"/>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="131" spans="4:10">
+      <c r="D131">
+        <v>6</v>
+      </c>
+      <c r="E131" s="1">
+        <v>363</v>
+      </c>
+      <c r="F131" s="1">
+        <v>668</v>
+      </c>
+      <c r="G131" s="1">
+        <f t="shared" si="18"/>
+        <v>173</v>
+      </c>
+      <c r="H131" s="1">
+        <f t="shared" si="19"/>
+        <v>-12</v>
+      </c>
+      <c r="I131" s="2">
+        <f t="shared" si="17"/>
+        <v>2.8833333333333333</v>
+      </c>
+      <c r="J131" s="2">
+        <f t="shared" si="17"/>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="132" spans="4:10">
+      <c r="D132">
+        <v>7</v>
+      </c>
+      <c r="E132" s="1">
+        <v>363</v>
+      </c>
+      <c r="F132" s="1">
+        <v>507</v>
+      </c>
+      <c r="G132" s="1">
+        <f t="shared" si="18"/>
+        <v>173</v>
+      </c>
+      <c r="H132" s="1">
+        <f t="shared" si="19"/>
+        <v>149</v>
+      </c>
+      <c r="I132" s="2">
+        <f t="shared" si="17"/>
+        <v>2.8833333333333333</v>
+      </c>
+      <c r="J132" s="2">
+        <f t="shared" si="17"/>
+        <v>2.4833333333333334</v>
+      </c>
+    </row>
+    <row r="133" spans="4:10">
+      <c r="D133">
+        <v>8</v>
+      </c>
+      <c r="E133" s="1">
+        <v>239</v>
+      </c>
+      <c r="F133" s="1">
+        <v>507</v>
+      </c>
+      <c r="G133" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="H133" s="1">
+        <f t="shared" si="19"/>
+        <v>149</v>
+      </c>
+      <c r="I133" s="2">
+        <f t="shared" si="17"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="J133" s="2">
+        <f t="shared" si="17"/>
+        <v>2.4833333333333334</v>
+      </c>
+    </row>
+    <row r="134" spans="4:10">
+      <c r="D134">
+        <v>9</v>
+      </c>
+      <c r="E134" s="1">
+        <v>239</v>
+      </c>
+      <c r="F134" s="1">
+        <v>460</v>
+      </c>
+      <c r="G134" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="H134" s="1">
+        <f t="shared" si="19"/>
+        <v>196</v>
+      </c>
+      <c r="I134" s="2">
+        <f t="shared" si="17"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="J134" s="2">
+        <f t="shared" si="17"/>
+        <v>3.2666666666666666</v>
+      </c>
+    </row>
+    <row r="135" spans="4:10">
+      <c r="D135">
+        <v>10</v>
+      </c>
+      <c r="E135" s="1">
+        <v>363</v>
+      </c>
+      <c r="F135" s="1">
+        <v>460</v>
+      </c>
+      <c r="G135" s="1">
+        <f t="shared" si="18"/>
+        <v>173</v>
+      </c>
+      <c r="H135" s="1">
+        <f t="shared" si="19"/>
+        <v>196</v>
+      </c>
+      <c r="I135" s="2">
+        <f t="shared" si="17"/>
+        <v>2.8833333333333333</v>
+      </c>
+      <c r="J135" s="2">
+        <f t="shared" si="17"/>
+        <v>3.2666666666666666</v>
+      </c>
+    </row>
+    <row r="136" spans="4:10">
+      <c r="D136">
+        <v>11</v>
+      </c>
+      <c r="E136" s="1">
+        <v>363</v>
+      </c>
+      <c r="F136" s="1">
+        <v>302</v>
+      </c>
+      <c r="G136" s="1">
+        <f t="shared" si="18"/>
+        <v>173</v>
+      </c>
+      <c r="H136" s="1">
+        <f t="shared" si="19"/>
+        <v>354</v>
+      </c>
+      <c r="I136" s="2">
+        <f t="shared" si="17"/>
+        <v>2.8833333333333333</v>
+      </c>
+      <c r="J136" s="2">
+        <f t="shared" si="17"/>
+        <v>5.8999999999999995</v>
+      </c>
+    </row>
+    <row r="137" spans="4:10">
+      <c r="D137">
+        <v>12</v>
+      </c>
+      <c r="E137" s="1">
+        <v>239</v>
+      </c>
+      <c r="F137" s="1">
+        <v>302</v>
+      </c>
+      <c r="G137" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="H137" s="1">
+        <f t="shared" si="19"/>
+        <v>354</v>
+      </c>
+      <c r="I137" s="2">
+        <f t="shared" si="17"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="J137" s="2">
+        <f t="shared" si="17"/>
+        <v>5.8999999999999995</v>
+      </c>
+    </row>
+    <row r="138" spans="4:10">
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I138" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J138" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="4:10">
+      <c r="D139" t="s">
+        <v>31</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I139" s="2">
+        <f t="shared" ref="I139:J144" si="20">G139/300 * 5</f>
+        <v>0</v>
+      </c>
+      <c r="J139" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="4:10">
+      <c r="E140" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I140" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J140" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="4:10">
+      <c r="D141" t="s">
+        <v>34</v>
+      </c>
+      <c r="E141" s="1">
+        <v>457</v>
+      </c>
+      <c r="F141" s="1">
+        <v>654</v>
+      </c>
+      <c r="G141" s="1">
+        <f>E141-457</f>
+        <v>0</v>
+      </c>
+      <c r="H141" s="1">
+        <f>-F141+654</f>
+        <v>0</v>
+      </c>
+      <c r="I141" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J141" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="4:10">
+      <c r="E142" s="1">
+        <v>496</v>
+      </c>
+      <c r="F142" s="1">
+        <v>654</v>
+      </c>
+      <c r="G142" s="1">
+        <f t="shared" ref="G142:G144" si="21">E142-457</f>
+        <v>39</v>
+      </c>
+      <c r="H142" s="1">
+        <f t="shared" ref="H142:H144" si="22">-F142+654</f>
+        <v>0</v>
+      </c>
+      <c r="I142" s="2">
+        <f t="shared" si="20"/>
+        <v>0.65</v>
+      </c>
+      <c r="J142" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="4:10">
+      <c r="E143" s="1">
+        <v>496</v>
+      </c>
+      <c r="F143" s="1">
+        <v>313</v>
+      </c>
+      <c r="G143" s="1">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="H143" s="1">
+        <f t="shared" si="22"/>
+        <v>341</v>
+      </c>
+      <c r="I143" s="2">
+        <f t="shared" si="20"/>
+        <v>0.65</v>
+      </c>
+      <c r="J143" s="2">
+        <f t="shared" si="20"/>
+        <v>5.6833333333333336</v>
+      </c>
+    </row>
+    <row r="144" spans="4:10">
+      <c r="E144" s="1">
+        <v>457</v>
+      </c>
+      <c r="F144" s="1">
+        <v>313</v>
+      </c>
+      <c r="G144" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H144" s="1">
+        <f t="shared" si="22"/>
+        <v>341</v>
+      </c>
+      <c r="I144" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J144" s="2">
+        <f t="shared" si="20"/>
+        <v>5.6833333333333336</v>
+      </c>
+    </row>
+    <row r="145" spans="4:10">
+      <c r="D145" t="s">
+        <v>35</v>
+      </c>
+      <c r="I145" s="2">
+        <f t="shared" ref="I145:I157" si="23">G145/300 * 5</f>
+        <v>0</v>
+      </c>
+      <c r="J145" s="2">
+        <f t="shared" ref="J145:J157" si="24">H145/300 * 5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="4:10">
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1">
+        <v>540</v>
+      </c>
+      <c r="F146" s="1">
+        <v>659</v>
+      </c>
+      <c r="G146" s="1">
+        <f>E146-540</f>
+        <v>0</v>
+      </c>
+      <c r="H146" s="1">
+        <f>-F146+659</f>
+        <v>0</v>
+      </c>
+      <c r="I146" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J146" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="4:10">
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" s="1">
+        <v>599</v>
+      </c>
+      <c r="F147" s="1">
+        <v>659</v>
+      </c>
+      <c r="G147" s="1">
+        <f t="shared" ref="G147:G157" si="25">E147-540</f>
+        <v>59</v>
+      </c>
+      <c r="H147" s="1">
+        <f t="shared" ref="H147:H157" si="26">-F147+659</f>
+        <v>0</v>
+      </c>
+      <c r="I147" s="2">
+        <f t="shared" si="23"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="J147" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="4:10">
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148" s="1">
+        <v>702</v>
+      </c>
+      <c r="F148" s="1">
+        <v>659</v>
+      </c>
+      <c r="G148" s="1">
+        <f t="shared" si="25"/>
+        <v>162</v>
+      </c>
+      <c r="H148" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I148" s="2">
+        <f t="shared" si="23"/>
+        <v>2.7</v>
+      </c>
+      <c r="J148" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="4:10">
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149" s="1">
+        <v>760</v>
+      </c>
+      <c r="F149" s="1">
+        <v>594</v>
+      </c>
+      <c r="G149" s="1">
+        <f t="shared" si="25"/>
+        <v>220</v>
+      </c>
+      <c r="H149" s="1">
+        <f t="shared" si="26"/>
+        <v>65</v>
+      </c>
+      <c r="I149" s="2">
+        <f t="shared" si="23"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="J149" s="2">
+        <f t="shared" si="24"/>
+        <v>1.0833333333333335</v>
+      </c>
+    </row>
+    <row r="150" spans="4:10">
+      <c r="D150">
+        <v>4</v>
+      </c>
+      <c r="E150" s="1">
+        <v>760</v>
+      </c>
+      <c r="F150" s="1">
+        <v>311</v>
+      </c>
+      <c r="G150" s="1">
+        <f t="shared" si="25"/>
+        <v>220</v>
+      </c>
+      <c r="H150" s="1">
+        <f t="shared" si="26"/>
+        <v>348</v>
+      </c>
+      <c r="I150" s="2">
+        <f t="shared" si="23"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="J150" s="2">
+        <f t="shared" si="24"/>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="151" spans="4:10">
+      <c r="D151">
+        <v>5</v>
+      </c>
+      <c r="E151" s="1">
+        <v>716</v>
+      </c>
+      <c r="F151" s="1">
+        <v>311</v>
+      </c>
+      <c r="G151" s="1">
+        <f t="shared" si="25"/>
+        <v>176</v>
+      </c>
+      <c r="H151" s="1">
+        <f t="shared" si="26"/>
+        <v>348</v>
+      </c>
+      <c r="I151" s="2">
+        <f t="shared" si="23"/>
+        <v>2.9333333333333336</v>
+      </c>
+      <c r="J151" s="2">
+        <f t="shared" si="24"/>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="152" spans="4:10">
+      <c r="D152">
+        <v>6</v>
+      </c>
+      <c r="E152" s="1">
+        <v>716</v>
+      </c>
+      <c r="F152" s="1">
+        <v>573</v>
+      </c>
+      <c r="G152" s="1">
+        <f t="shared" si="25"/>
+        <v>176</v>
+      </c>
+      <c r="H152" s="1">
+        <f t="shared" si="26"/>
+        <v>86</v>
+      </c>
+      <c r="I152" s="2">
+        <f t="shared" si="23"/>
+        <v>2.9333333333333336</v>
+      </c>
+      <c r="J152" s="2">
+        <f t="shared" si="24"/>
+        <v>1.4333333333333333</v>
+      </c>
+    </row>
+    <row r="153" spans="4:10">
+      <c r="D153">
+        <v>7</v>
+      </c>
+      <c r="E153" s="1">
+        <v>681</v>
+      </c>
+      <c r="F153" s="1">
+        <v>606</v>
+      </c>
+      <c r="G153" s="1">
+        <f t="shared" si="25"/>
+        <v>141</v>
+      </c>
+      <c r="H153" s="1">
+        <f t="shared" si="26"/>
+        <v>53</v>
+      </c>
+      <c r="I153" s="2">
+        <f t="shared" si="23"/>
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="J153" s="2">
+        <f t="shared" si="24"/>
+        <v>0.8833333333333333</v>
+      </c>
+    </row>
+    <row r="154" spans="4:10">
+      <c r="D154">
+        <v>8</v>
+      </c>
+      <c r="E154" s="1">
+        <v>619</v>
+      </c>
+      <c r="F154" s="1">
+        <v>606</v>
+      </c>
+      <c r="G154" s="1">
+        <f t="shared" si="25"/>
+        <v>79</v>
+      </c>
+      <c r="H154" s="1">
+        <f t="shared" si="26"/>
+        <v>53</v>
+      </c>
+      <c r="I154" s="2">
+        <f t="shared" si="23"/>
+        <v>1.3166666666666664</v>
+      </c>
+      <c r="J154" s="2">
+        <f t="shared" si="24"/>
+        <v>0.8833333333333333</v>
+      </c>
+    </row>
+    <row r="155" spans="4:10">
+      <c r="D155">
+        <v>9</v>
+      </c>
+      <c r="E155" s="1">
+        <v>584</v>
+      </c>
+      <c r="F155" s="1">
+        <v>573</v>
+      </c>
+      <c r="G155" s="1">
+        <f t="shared" si="25"/>
+        <v>44</v>
+      </c>
+      <c r="H155" s="1">
+        <f t="shared" si="26"/>
+        <v>86</v>
+      </c>
+      <c r="I155" s="2">
+        <f t="shared" si="23"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="J155" s="2">
+        <f t="shared" si="24"/>
+        <v>1.4333333333333333</v>
+      </c>
+    </row>
+    <row r="156" spans="4:10">
+      <c r="D156">
+        <v>10</v>
+      </c>
+      <c r="E156" s="1">
+        <v>543</v>
+      </c>
+      <c r="F156" s="1">
+        <v>571</v>
+      </c>
+      <c r="G156" s="1">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="H156" s="1">
+        <f t="shared" si="26"/>
+        <v>88</v>
+      </c>
+      <c r="I156" s="2">
+        <f t="shared" si="23"/>
+        <v>0.05</v>
+      </c>
+      <c r="J156" s="2">
+        <f t="shared" si="24"/>
+        <v>1.4666666666666668</v>
+      </c>
+    </row>
+    <row r="157" spans="4:10">
+      <c r="D157">
+        <v>11</v>
+      </c>
+      <c r="E157" s="1">
+        <v>543</v>
+      </c>
+      <c r="F157" s="1">
+        <v>593</v>
+      </c>
+      <c r="G157" s="1">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="H157" s="1">
+        <f t="shared" si="26"/>
+        <v>66</v>
+      </c>
+      <c r="I157" s="2">
+        <f t="shared" si="23"/>
+        <v>0.05</v>
+      </c>
+      <c r="J157" s="2">
+        <f t="shared" si="24"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="4:10">
+      <c r="D158" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I158" s="2">
+        <f t="shared" ref="I158:I172" si="27">G158/300 * 5</f>
+        <v>0</v>
+      </c>
+      <c r="J158" s="2">
+        <f t="shared" ref="J158:J172" si="28">H158/300 * 5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="4:10">
+      <c r="D159" t="s">
+        <v>3</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I159" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J159" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="4:10">
+      <c r="E160" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I160" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J160" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="4:10">
+      <c r="D161" t="s">
+        <v>39</v>
+      </c>
+      <c r="I161" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J161" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="4:10">
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162" s="1">
+        <v>460</v>
+      </c>
+      <c r="F162" s="1">
+        <v>738</v>
+      </c>
+      <c r="G162" s="1">
+        <f>E162-460</f>
+        <v>0</v>
+      </c>
+      <c r="H162" s="1">
+        <f>-F162+738</f>
+        <v>0</v>
+      </c>
+      <c r="I162" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J162" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="4:10">
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163" s="1">
+        <v>679</v>
+      </c>
+      <c r="F163" s="1">
+        <v>738</v>
+      </c>
+      <c r="G163" s="1">
+        <f t="shared" ref="G163:G172" si="29">E163-460</f>
+        <v>219</v>
+      </c>
+      <c r="H163" s="1">
+        <f t="shared" ref="H163:H172" si="30">-F163+738</f>
+        <v>0</v>
+      </c>
+      <c r="I163" s="2">
+        <f t="shared" si="27"/>
+        <v>3.65</v>
+      </c>
+      <c r="J163" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="4:10">
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164" s="1">
+        <v>654</v>
+      </c>
+      <c r="F164" s="1">
+        <v>397</v>
+      </c>
+      <c r="G164" s="1">
+        <f t="shared" si="29"/>
+        <v>194</v>
+      </c>
+      <c r="H164" s="1">
+        <f t="shared" si="30"/>
+        <v>341</v>
+      </c>
+      <c r="I164" s="2">
+        <f t="shared" si="27"/>
+        <v>3.2333333333333329</v>
+      </c>
+      <c r="J164" s="2">
+        <f t="shared" si="28"/>
+        <v>5.6833333333333336</v>
+      </c>
+    </row>
+    <row r="165" spans="4:10">
+      <c r="D165">
+        <v>3</v>
+      </c>
+      <c r="E165" s="1">
+        <v>460</v>
+      </c>
+      <c r="F165" s="1">
+        <v>397</v>
+      </c>
+      <c r="G165" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H165" s="1">
+        <f t="shared" si="30"/>
+        <v>341</v>
+      </c>
+      <c r="I165" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J165" s="2">
+        <f t="shared" si="28"/>
+        <v>5.6833333333333336</v>
+      </c>
+    </row>
+    <row r="166" spans="4:10">
+      <c r="D166">
+        <v>4</v>
+      </c>
+      <c r="E166" s="1">
+        <v>506</v>
+      </c>
+      <c r="F166" s="1">
+        <v>738</v>
+      </c>
+      <c r="G166" s="1">
+        <f t="shared" si="29"/>
+        <v>46</v>
+      </c>
+      <c r="H166" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I166" s="2">
+        <f t="shared" si="27"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="J166" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="4:10">
+      <c r="D167">
+        <v>5</v>
+      </c>
+      <c r="E167" s="1">
+        <v>623</v>
+      </c>
+      <c r="F167" s="1">
+        <v>738</v>
+      </c>
+      <c r="G167" s="1">
+        <f t="shared" si="29"/>
+        <v>163</v>
+      </c>
+      <c r="H167" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I167" s="2">
+        <f t="shared" si="27"/>
+        <v>2.7166666666666668</v>
+      </c>
+      <c r="J167" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="4:10">
+      <c r="D168">
+        <v>6</v>
+      </c>
+      <c r="E168" s="1">
+        <v>504</v>
+      </c>
+      <c r="F168" s="1">
+        <v>585</v>
+      </c>
+      <c r="G168" s="1">
+        <f t="shared" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="H168" s="1">
+        <f t="shared" si="30"/>
+        <v>153</v>
+      </c>
+      <c r="I168" s="2">
+        <f t="shared" si="27"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="J168" s="2">
+        <f t="shared" si="28"/>
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="4:10">
+      <c r="D169">
+        <v>7</v>
+      </c>
+      <c r="E169" s="1">
+        <v>504</v>
+      </c>
+      <c r="F169" s="1">
+        <v>397</v>
+      </c>
+      <c r="G169" s="1">
+        <f t="shared" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="H169" s="1">
+        <f t="shared" si="30"/>
+        <v>341</v>
+      </c>
+      <c r="I169" s="2">
+        <f t="shared" si="27"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="J169" s="2">
+        <f t="shared" si="28"/>
+        <v>5.6833333333333336</v>
+      </c>
+    </row>
+    <row r="170" spans="4:10">
+      <c r="D170">
+        <v>8</v>
+      </c>
+      <c r="E170" s="1">
+        <v>504</v>
+      </c>
+      <c r="F170" s="1">
+        <v>517</v>
+      </c>
+      <c r="G170" s="1">
+        <f t="shared" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="H170" s="1">
+        <f t="shared" si="30"/>
+        <v>221</v>
+      </c>
+      <c r="I170" s="2">
+        <f t="shared" si="27"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="J170" s="2">
+        <f t="shared" si="28"/>
+        <v>3.6833333333333336</v>
+      </c>
+    </row>
+    <row r="171" spans="4:10">
+      <c r="D171">
+        <v>9</v>
+      </c>
+      <c r="E171" s="1">
+        <v>601</v>
+      </c>
+      <c r="F171" s="1">
+        <v>397</v>
+      </c>
+      <c r="G171" s="1">
+        <f t="shared" si="29"/>
+        <v>141</v>
+      </c>
+      <c r="H171" s="1">
+        <f t="shared" si="30"/>
+        <v>341</v>
+      </c>
+      <c r="I171" s="2">
+        <f t="shared" si="27"/>
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="J171" s="2">
+        <f t="shared" si="28"/>
+        <v>5.6833333333333336</v>
+      </c>
+    </row>
+    <row r="172" spans="4:10">
+      <c r="D172">
+        <v>10</v>
+      </c>
+      <c r="E172" s="1">
+        <v>532</v>
+      </c>
+      <c r="F172" s="1">
+        <v>551</v>
+      </c>
+      <c r="G172" s="1">
+        <f t="shared" si="29"/>
+        <v>72</v>
+      </c>
+      <c r="H172" s="1">
+        <f t="shared" si="30"/>
+        <v>187</v>
+      </c>
+      <c r="I172" s="2">
+        <f t="shared" si="27"/>
+        <v>1.2</v>
+      </c>
+      <c r="J172" s="2">
+        <f t="shared" si="28"/>
+        <v>3.1166666666666663</v>
+      </c>
+    </row>
+    <row r="173" spans="4:10">
+      <c r="D173" t="s">
+        <v>40</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I173" s="2">
+        <f t="shared" ref="I173:I183" si="31">G173/300 * 5</f>
+        <v>0</v>
+      </c>
+      <c r="J173" s="2">
+        <f t="shared" ref="J173:J183" si="32">H173/300 * 5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="4:10">
+      <c r="D174" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I174" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J174" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="4:10">
+      <c r="E175" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I175" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J175" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="4:10">
+      <c r="E176" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I176" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J176" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="4:10">
+      <c r="D177" t="s">
+        <v>45</v>
+      </c>
+      <c r="I177" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J177" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="4:10">
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178" s="1">
+        <v>413</v>
+      </c>
+      <c r="F178" s="1">
+        <v>738</v>
+      </c>
+      <c r="G178" s="1">
+        <f>E178-413</f>
+        <v>0</v>
+      </c>
+      <c r="H178" s="1">
+        <f>-F178+738</f>
+        <v>0</v>
+      </c>
+      <c r="I178" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J178" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="4:10">
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179" s="1">
+        <v>632</v>
+      </c>
+      <c r="F179" s="1">
+        <v>738</v>
+      </c>
+      <c r="G179" s="1">
+        <f t="shared" ref="G179:G183" si="33">E179-413</f>
+        <v>219</v>
+      </c>
+      <c r="H179" s="1">
+        <f t="shared" ref="H179:H183" si="34">-F179+738</f>
+        <v>0</v>
+      </c>
+      <c r="I179" s="2">
+        <f t="shared" si="31"/>
+        <v>3.65</v>
+      </c>
+      <c r="J179" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="4:10">
+      <c r="D180">
+        <v>3</v>
+      </c>
+      <c r="E180" s="1">
+        <v>632</v>
+      </c>
+      <c r="F180" s="1">
+        <v>689</v>
+      </c>
+      <c r="G180" s="1">
+        <f t="shared" si="33"/>
+        <v>219</v>
+      </c>
+      <c r="H180" s="1">
+        <f t="shared" si="34"/>
+        <v>49</v>
+      </c>
+      <c r="I180" s="2">
+        <f t="shared" si="31"/>
+        <v>3.65</v>
+      </c>
+      <c r="J180" s="2">
+        <f t="shared" si="32"/>
+        <v>0.81666666666666665</v>
+      </c>
+    </row>
+    <row r="181" spans="4:10">
+      <c r="D181">
+        <v>4</v>
+      </c>
+      <c r="E181" s="1">
+        <v>460</v>
+      </c>
+      <c r="F181" s="1">
+        <v>395</v>
+      </c>
+      <c r="G181" s="1">
+        <f t="shared" si="33"/>
+        <v>47</v>
+      </c>
+      <c r="H181" s="1">
+        <f t="shared" si="34"/>
+        <v>343</v>
+      </c>
+      <c r="I181" s="2">
+        <f t="shared" si="31"/>
+        <v>0.78333333333333344</v>
+      </c>
+      <c r="J181" s="2">
+        <f t="shared" si="32"/>
+        <v>5.7166666666666668</v>
+      </c>
+    </row>
+    <row r="182" spans="4:10">
+      <c r="D182">
+        <v>5</v>
+      </c>
+      <c r="E182" s="1">
+        <v>413</v>
+      </c>
+      <c r="F182" s="1">
+        <v>395</v>
+      </c>
+      <c r="G182" s="1">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="H182" s="1">
+        <f t="shared" si="34"/>
+        <v>343</v>
+      </c>
+      <c r="I182" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J182" s="2">
+        <f t="shared" si="32"/>
+        <v>5.7166666666666668</v>
+      </c>
+    </row>
+    <row r="183" spans="4:10">
+      <c r="D183">
+        <v>6</v>
+      </c>
+      <c r="E183" s="1">
+        <v>460</v>
+      </c>
+      <c r="F183" s="1">
+        <v>689</v>
+      </c>
+      <c r="G183" s="1">
+        <f t="shared" si="33"/>
+        <v>47</v>
+      </c>
+      <c r="H183" s="1">
+        <f t="shared" si="34"/>
+        <v>49</v>
+      </c>
+      <c r="I183" s="2">
+        <f t="shared" si="31"/>
+        <v>0.78333333333333344</v>
+      </c>
+      <c r="J183" s="2">
+        <f t="shared" si="32"/>
+        <v>0.81666666666666665</v>
+      </c>
+    </row>
+    <row r="184" spans="4:10">
+      <c r="D184" t="s">
+        <v>40</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I184" s="2">
+        <f t="shared" ref="I184:I199" si="35">G184/300 * 5</f>
+        <v>0</v>
+      </c>
+      <c r="J184" s="2">
+        <f t="shared" ref="J184:J199" si="36">H184/300 * 5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="4:10">
+      <c r="D185" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I185" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J185" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="4:10">
+      <c r="D186" t="s">
+        <v>48</v>
+      </c>
+      <c r="I186" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J186" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="4:10">
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187" s="1">
+        <v>325</v>
+      </c>
+      <c r="F187" s="1">
+        <v>738</v>
+      </c>
+      <c r="G187" s="1">
+        <f>E187-325</f>
+        <v>0</v>
+      </c>
+      <c r="H187" s="1">
+        <f>738-F187</f>
+        <v>0</v>
+      </c>
+      <c r="I187" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J187" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="4:10">
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188" s="1">
+        <v>625</v>
+      </c>
+      <c r="F188" s="1">
+        <v>738</v>
+      </c>
+      <c r="G188" s="1">
+        <f t="shared" ref="G188:G199" si="37">E188-325</f>
+        <v>300</v>
+      </c>
+      <c r="H188" s="1">
+        <f t="shared" ref="H188:H199" si="38">738-F188</f>
+        <v>0</v>
+      </c>
+      <c r="I188" s="2">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="J188" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="4:10">
+      <c r="D189">
+        <v>3</v>
+      </c>
+      <c r="E189" s="1">
+        <v>625</v>
+      </c>
+      <c r="F189" s="1">
+        <v>396</v>
+      </c>
+      <c r="G189" s="1">
+        <f t="shared" si="37"/>
+        <v>300</v>
+      </c>
+      <c r="H189" s="1">
+        <f t="shared" si="38"/>
+        <v>342</v>
+      </c>
+      <c r="I189" s="2">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="J189" s="2">
+        <f t="shared" si="36"/>
+        <v>5.6999999999999993</v>
+      </c>
+    </row>
+    <row r="190" spans="4:10">
+      <c r="D190">
+        <v>4</v>
+      </c>
+      <c r="E190" s="1">
+        <v>325</v>
+      </c>
+      <c r="F190" s="1">
+        <v>396</v>
+      </c>
+      <c r="G190" s="1">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H190" s="1">
+        <f t="shared" si="38"/>
+        <v>342</v>
+      </c>
+      <c r="I190" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J190" s="2">
+        <f t="shared" si="36"/>
+        <v>5.6999999999999993</v>
+      </c>
+    </row>
+    <row r="191" spans="4:10">
+      <c r="D191">
+        <v>5</v>
+      </c>
+      <c r="E191" s="1">
+        <v>367</v>
+      </c>
+      <c r="F191" s="1">
+        <v>740</v>
+      </c>
+      <c r="G191" s="1">
+        <f t="shared" si="37"/>
+        <v>42</v>
+      </c>
+      <c r="H191" s="1">
+        <f t="shared" si="38"/>
+        <v>-2</v>
+      </c>
+      <c r="I191" s="2">
+        <f t="shared" si="35"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J191" s="2">
+        <f t="shared" si="36"/>
+        <v>-3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="4:10">
+      <c r="D192">
+        <v>6</v>
+      </c>
+      <c r="E192" s="1">
+        <v>450</v>
+      </c>
+      <c r="F192" s="1">
+        <v>740</v>
+      </c>
+      <c r="G192" s="1">
+        <f t="shared" si="37"/>
+        <v>125</v>
+      </c>
+      <c r="H192" s="1">
+        <f t="shared" si="38"/>
+        <v>-2</v>
+      </c>
+      <c r="I192" s="2">
+        <f t="shared" si="35"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="J192" s="2">
+        <f t="shared" si="36"/>
+        <v>-3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="4:10">
+      <c r="D193">
+        <v>7</v>
+      </c>
+      <c r="E193" s="1">
+        <v>366</v>
+      </c>
+      <c r="F193" s="1">
+        <v>462</v>
+      </c>
+      <c r="G193" s="1">
+        <f t="shared" si="37"/>
+        <v>41</v>
+      </c>
+      <c r="H193" s="1">
+        <f t="shared" si="38"/>
+        <v>276</v>
+      </c>
+      <c r="I193" s="2">
+        <f t="shared" si="35"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="J193" s="2">
+        <f t="shared" si="36"/>
+        <v>4.6000000000000005</v>
+      </c>
+    </row>
+    <row r="194" spans="4:10">
+      <c r="D194">
+        <v>8</v>
+      </c>
+      <c r="E194" s="1">
+        <v>501</v>
+      </c>
+      <c r="F194" s="1">
+        <v>740</v>
+      </c>
+      <c r="G194" s="1">
+        <f t="shared" si="37"/>
+        <v>176</v>
+      </c>
+      <c r="H194" s="1">
+        <f t="shared" si="38"/>
+        <v>-2</v>
+      </c>
+      <c r="I194" s="2">
+        <f t="shared" si="35"/>
+        <v>2.9333333333333336</v>
+      </c>
+      <c r="J194" s="2">
+        <f t="shared" si="36"/>
+        <v>-3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="4:10">
+      <c r="D195">
+        <v>9</v>
+      </c>
+      <c r="E195" s="1">
+        <v>582</v>
+      </c>
+      <c r="F195" s="1">
+        <v>740</v>
+      </c>
+      <c r="G195" s="1">
+        <f t="shared" si="37"/>
+        <v>257</v>
+      </c>
+      <c r="H195" s="1">
+        <f t="shared" si="38"/>
+        <v>-2</v>
+      </c>
+      <c r="I195" s="2">
+        <f t="shared" si="35"/>
+        <v>4.2833333333333332</v>
+      </c>
+      <c r="J195" s="2">
+        <f t="shared" si="36"/>
+        <v>-3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="4:10">
+      <c r="D196">
+        <v>10</v>
+      </c>
+      <c r="E196" s="1">
+        <v>579</v>
+      </c>
+      <c r="F196" s="1">
+        <v>462</v>
+      </c>
+      <c r="G196" s="1">
+        <f t="shared" si="37"/>
+        <v>254</v>
+      </c>
+      <c r="H196" s="1">
+        <f t="shared" si="38"/>
+        <v>276</v>
+      </c>
+      <c r="I196" s="2">
+        <f t="shared" si="35"/>
+        <v>4.2333333333333334</v>
+      </c>
+      <c r="J196" s="2">
+        <f t="shared" si="36"/>
+        <v>4.6000000000000005</v>
+      </c>
+    </row>
+    <row r="197" spans="4:10">
+      <c r="D197">
+        <v>11</v>
+      </c>
+      <c r="E197" s="1">
+        <v>559</v>
+      </c>
+      <c r="F197" s="1">
+        <v>400</v>
+      </c>
+      <c r="G197" s="1">
+        <f t="shared" si="37"/>
+        <v>234</v>
+      </c>
+      <c r="H197" s="1">
+        <f t="shared" si="38"/>
+        <v>338</v>
+      </c>
+      <c r="I197" s="2">
+        <f t="shared" si="35"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="J197" s="2">
+        <f t="shared" si="36"/>
+        <v>5.6333333333333337</v>
+      </c>
+    </row>
+    <row r="198" spans="4:10">
+      <c r="D198">
+        <v>12</v>
+      </c>
+      <c r="E198" s="1">
+        <v>388</v>
+      </c>
+      <c r="F198" s="1">
+        <v>400</v>
+      </c>
+      <c r="G198" s="1">
+        <f t="shared" si="37"/>
+        <v>63</v>
+      </c>
+      <c r="H198" s="1">
+        <f t="shared" si="38"/>
+        <v>338</v>
+      </c>
+      <c r="I198" s="2">
+        <f t="shared" si="35"/>
+        <v>1.05</v>
+      </c>
+      <c r="J198" s="2">
+        <f t="shared" si="36"/>
+        <v>5.6333333333333337</v>
+      </c>
+    </row>
+    <row r="199" spans="4:10">
+      <c r="D199">
+        <v>13</v>
+      </c>
+      <c r="E199" s="1">
+        <v>476</v>
+      </c>
+      <c r="F199" s="1">
+        <v>662</v>
+      </c>
+      <c r="G199" s="1">
+        <f t="shared" si="37"/>
+        <v>151</v>
+      </c>
+      <c r="H199" s="1">
+        <f t="shared" si="38"/>
+        <v>76</v>
+      </c>
+      <c r="I199" s="2">
+        <f t="shared" si="35"/>
+        <v>2.5166666666666666</v>
+      </c>
+      <c r="J199" s="2">
+        <f t="shared" si="36"/>
+        <v>1.2666666666666668</v>
+      </c>
+    </row>
+    <row r="200" spans="4:10">
+      <c r="D200" t="s">
+        <v>40</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I200" s="2">
+        <f t="shared" ref="I200:I215" si="39">G200/300 * 5</f>
+        <v>0</v>
+      </c>
+      <c r="J200" s="2">
+        <f t="shared" ref="J200:J215" si="40">H200/300 * 5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="4:10">
+      <c r="D201" t="s">
+        <v>49</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I201" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J201" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="4:10">
+      <c r="E202" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I202" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J202" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="4:10">
+      <c r="E203" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I203" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J203" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="4:10">
+      <c r="I204" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J204" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="4:10">
+      <c r="E205" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I205" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J205" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="4:10">
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206" s="1">
+        <v>320</v>
+      </c>
+      <c r="F206" s="1">
+        <v>740</v>
+      </c>
+      <c r="G206" s="1">
+        <f>E206-320</f>
+        <v>0</v>
+      </c>
+      <c r="H206" s="1">
+        <f>740-F206</f>
+        <v>0</v>
+      </c>
+      <c r="I206" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J206" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="4:10">
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207" s="1">
+        <v>563</v>
+      </c>
+      <c r="F207" s="1">
+        <v>740</v>
+      </c>
+      <c r="G207" s="1">
+        <f t="shared" ref="G207:G215" si="41">E207-320</f>
+        <v>243</v>
+      </c>
+      <c r="H207" s="1">
+        <f t="shared" ref="H207:H215" si="42">740-F207</f>
+        <v>0</v>
+      </c>
+      <c r="I207" s="2">
+        <f t="shared" si="39"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="J207" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="4:10">
+      <c r="D208">
+        <v>3</v>
+      </c>
+      <c r="E208" s="1">
+        <v>563</v>
+      </c>
+      <c r="F208" s="1">
+        <v>398</v>
+      </c>
+      <c r="G208" s="1">
+        <f t="shared" si="41"/>
+        <v>243</v>
+      </c>
+      <c r="H208" s="1">
+        <f t="shared" si="42"/>
+        <v>342</v>
+      </c>
+      <c r="I208" s="2">
+        <f t="shared" si="39"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="J208" s="2">
+        <f t="shared" si="40"/>
+        <v>5.6999999999999993</v>
+      </c>
+    </row>
+    <row r="209" spans="4:10">
+      <c r="D209">
+        <v>4</v>
+      </c>
+      <c r="E209" s="1">
+        <v>320</v>
+      </c>
+      <c r="F209" s="1">
+        <v>398</v>
+      </c>
+      <c r="G209" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="H209" s="1">
+        <f t="shared" si="42"/>
+        <v>342</v>
+      </c>
+      <c r="I209" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J209" s="2">
+        <f t="shared" si="40"/>
+        <v>5.6999999999999993</v>
+      </c>
+    </row>
+    <row r="210" spans="4:10">
+      <c r="D210">
+        <v>5</v>
+      </c>
+      <c r="E210" s="1">
+        <v>365</v>
+      </c>
+      <c r="F210" s="1">
+        <v>742</v>
+      </c>
+      <c r="G210" s="1">
+        <f t="shared" si="41"/>
+        <v>45</v>
+      </c>
+      <c r="H210" s="1">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="I210" s="2">
+        <f t="shared" si="39"/>
+        <v>0.75</v>
+      </c>
+      <c r="J210" s="2">
+        <f t="shared" si="40"/>
+        <v>-3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="4:10">
+      <c r="D211">
+        <v>6</v>
+      </c>
+      <c r="E211" s="1">
+        <v>510</v>
+      </c>
+      <c r="F211" s="1">
+        <v>742</v>
+      </c>
+      <c r="G211" s="1">
+        <f t="shared" si="41"/>
+        <v>190</v>
+      </c>
+      <c r="H211" s="1">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="I211" s="2">
+        <f t="shared" si="39"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="J211" s="2">
+        <f t="shared" si="40"/>
+        <v>-3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="4:10">
+      <c r="D212">
+        <v>7</v>
+      </c>
+      <c r="E212" s="1">
+        <v>366</v>
+      </c>
+      <c r="F212" s="1">
+        <v>481</v>
+      </c>
+      <c r="G212" s="1">
+        <f t="shared" si="41"/>
+        <v>46</v>
+      </c>
+      <c r="H212" s="1">
+        <f t="shared" si="42"/>
+        <v>259</v>
+      </c>
+      <c r="I212" s="2">
+        <f t="shared" si="39"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="J212" s="2">
+        <f t="shared" si="40"/>
+        <v>4.3166666666666664</v>
+      </c>
+    </row>
+    <row r="213" spans="4:10">
+      <c r="D213">
+        <v>8</v>
+      </c>
+      <c r="E213" s="1">
+        <v>515</v>
+      </c>
+      <c r="F213" s="1">
+        <v>394</v>
+      </c>
+      <c r="G213" s="1">
+        <f t="shared" si="41"/>
+        <v>195</v>
+      </c>
+      <c r="H213" s="1">
+        <f t="shared" si="42"/>
+        <v>346</v>
+      </c>
+      <c r="I213" s="2">
+        <f t="shared" si="39"/>
+        <v>3.25</v>
+      </c>
+      <c r="J213" s="2">
+        <f t="shared" si="40"/>
+        <v>5.7666666666666666</v>
+      </c>
+    </row>
+    <row r="214" spans="4:10">
+      <c r="D214">
+        <v>9</v>
+      </c>
+      <c r="E214" s="1">
+        <v>368</v>
+      </c>
+      <c r="F214" s="1">
+        <v>394</v>
+      </c>
+      <c r="G214" s="1">
+        <f t="shared" si="41"/>
+        <v>48</v>
+      </c>
+      <c r="H214" s="1">
+        <f t="shared" si="42"/>
+        <v>346</v>
+      </c>
+      <c r="I214" s="2">
+        <f t="shared" si="39"/>
+        <v>0.8</v>
+      </c>
+      <c r="J214" s="2">
+        <f t="shared" si="40"/>
+        <v>5.7666666666666666</v>
+      </c>
+    </row>
+    <row r="215" spans="4:10">
+      <c r="D215">
+        <v>10</v>
+      </c>
+      <c r="E215" s="1">
+        <v>515</v>
+      </c>
+      <c r="F215" s="1">
+        <v>656</v>
+      </c>
+      <c r="G215" s="1">
+        <f t="shared" si="41"/>
+        <v>195</v>
+      </c>
+      <c r="H215" s="1">
+        <f t="shared" si="42"/>
+        <v>84</v>
+      </c>
+      <c r="I215" s="2">
+        <f t="shared" si="39"/>
+        <v>3.25</v>
+      </c>
+      <c r="J215" s="2">
+        <f t="shared" si="40"/>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="4:10">
+      <c r="D216" t="s">
+        <v>54</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I216" s="2">
+        <f t="shared" ref="I216:I237" si="43">G216/300 * 5</f>
+        <v>0</v>
+      </c>
+      <c r="J216" s="2">
+        <f t="shared" ref="J216:J237" si="44">H216/300 * 5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="4:10">
+      <c r="D217" t="s">
+        <v>49</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I217" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J217" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="4:10">
+      <c r="E218" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I218" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J218" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="4:10">
+      <c r="I219" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J219" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="4:10">
+      <c r="E220" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I220" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J220" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="4:10">
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221" s="1">
+        <v>494</v>
+      </c>
+      <c r="F221" s="1">
+        <v>682</v>
+      </c>
+      <c r="G221" s="1">
+        <f>E221-494</f>
+        <v>0</v>
+      </c>
+      <c r="H221" s="1">
+        <f>682-F221</f>
+        <v>0</v>
+      </c>
+      <c r="I221" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J221" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="4:10">
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222" s="1">
+        <v>565</v>
+      </c>
+      <c r="F222" s="1">
+        <v>682</v>
+      </c>
+      <c r="G222" s="1">
+        <f t="shared" ref="G222:G237" si="45">E222-494</f>
+        <v>71</v>
+      </c>
+      <c r="H222" s="1">
+        <f t="shared" ref="H222:H237" si="46">682-F222</f>
+        <v>0</v>
+      </c>
+      <c r="I222" s="2">
+        <f t="shared" si="43"/>
+        <v>1.1833333333333333</v>
+      </c>
+      <c r="J222" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="4:10">
+      <c r="D223">
+        <v>2</v>
+      </c>
+      <c r="E223" s="1">
+        <v>666</v>
+      </c>
+      <c r="F223" s="1">
+        <v>682</v>
+      </c>
+      <c r="G223" s="1">
+        <f t="shared" si="45"/>
+        <v>172</v>
+      </c>
+      <c r="H223" s="1">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="I223" s="2">
+        <f t="shared" si="43"/>
+        <v>2.8666666666666667</v>
+      </c>
+      <c r="J223" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="4:10">
+      <c r="D224">
+        <v>3</v>
+      </c>
+      <c r="E224" s="1">
+        <v>744</v>
+      </c>
+      <c r="F224" s="1">
+        <v>593</v>
+      </c>
+      <c r="G224" s="1">
+        <f t="shared" si="45"/>
+        <v>250</v>
+      </c>
+      <c r="H224" s="1">
+        <f t="shared" si="46"/>
+        <v>89</v>
+      </c>
+      <c r="I224" s="2">
+        <f t="shared" si="43"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="J224" s="2">
+        <f t="shared" si="44"/>
+        <v>1.4833333333333334</v>
+      </c>
+    </row>
+    <row r="225" spans="4:10">
+      <c r="D225">
+        <v>4</v>
+      </c>
+      <c r="E225" s="1">
+        <v>744</v>
+      </c>
+      <c r="F225" s="1">
+        <v>422</v>
+      </c>
+      <c r="G225" s="1">
+        <f t="shared" si="45"/>
+        <v>250</v>
+      </c>
+      <c r="H225" s="1">
+        <f t="shared" si="46"/>
+        <v>260</v>
+      </c>
+      <c r="I225" s="2">
+        <f t="shared" si="43"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="J225" s="2">
+        <f t="shared" si="44"/>
+        <v>4.3333333333333339</v>
+      </c>
+    </row>
+    <row r="226" spans="4:10">
+      <c r="D226">
+        <v>5</v>
+      </c>
+      <c r="E226" s="1">
+        <v>666</v>
+      </c>
+      <c r="F226" s="1">
+        <v>338</v>
+      </c>
+      <c r="G226" s="1">
+        <f t="shared" si="45"/>
+        <v>172</v>
+      </c>
+      <c r="H226" s="1">
+        <f t="shared" si="46"/>
+        <v>344</v>
+      </c>
+      <c r="I226" s="2">
+        <f t="shared" si="43"/>
+        <v>2.8666666666666667</v>
+      </c>
+      <c r="J226" s="2">
+        <f t="shared" si="44"/>
+        <v>5.7333333333333334</v>
+      </c>
+    </row>
+    <row r="227" spans="4:10">
+      <c r="D227">
+        <v>6</v>
+      </c>
+      <c r="E227" s="1">
+        <v>571</v>
+      </c>
+      <c r="F227" s="1">
+        <v>338</v>
+      </c>
+      <c r="G227" s="1">
+        <f t="shared" si="45"/>
+        <v>77</v>
+      </c>
+      <c r="H227" s="1">
+        <f t="shared" si="46"/>
+        <v>344</v>
+      </c>
+      <c r="I227" s="2">
+        <f t="shared" si="43"/>
+        <v>1.2833333333333332</v>
+      </c>
+      <c r="J227" s="2">
+        <f t="shared" si="44"/>
+        <v>5.7333333333333334</v>
+      </c>
+    </row>
+    <row r="228" spans="4:10">
+      <c r="D228">
+        <v>7</v>
+      </c>
+      <c r="E228" s="1">
+        <v>491</v>
+      </c>
+      <c r="F228" s="1">
+        <v>421</v>
+      </c>
+      <c r="G228" s="1">
+        <f t="shared" si="45"/>
+        <v>-3</v>
+      </c>
+      <c r="H228" s="1">
+        <f t="shared" si="46"/>
+        <v>261</v>
+      </c>
+      <c r="I228" s="2">
+        <f t="shared" si="43"/>
+        <v>-0.05</v>
+      </c>
+      <c r="J228" s="2">
+        <f t="shared" si="44"/>
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="229" spans="4:10">
+      <c r="D229">
+        <v>8</v>
+      </c>
+      <c r="E229" s="1">
+        <v>491</v>
+      </c>
+      <c r="F229" s="1">
+        <v>590</v>
+      </c>
+      <c r="G229" s="1">
+        <f t="shared" si="45"/>
+        <v>-3</v>
+      </c>
+      <c r="H229" s="1">
+        <f t="shared" si="46"/>
+        <v>92</v>
+      </c>
+      <c r="I229" s="2">
+        <f t="shared" si="43"/>
+        <v>-0.05</v>
+      </c>
+      <c r="J229" s="2">
+        <f t="shared" si="44"/>
+        <v>1.5333333333333332</v>
+      </c>
+    </row>
+    <row r="230" spans="4:10">
+      <c r="D230">
+        <v>9</v>
+      </c>
+      <c r="E230" s="1">
+        <v>588</v>
+      </c>
+      <c r="F230" s="1">
+        <v>632</v>
+      </c>
+      <c r="G230" s="1">
+        <f t="shared" si="45"/>
+        <v>94</v>
+      </c>
+      <c r="H230" s="1">
+        <f t="shared" si="46"/>
+        <v>50</v>
+      </c>
+      <c r="I230" s="2">
+        <f t="shared" si="43"/>
+        <v>1.5666666666666669</v>
+      </c>
+      <c r="J230" s="2">
+        <f t="shared" si="44"/>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="231" spans="4:10">
+      <c r="D231">
+        <v>10</v>
+      </c>
+      <c r="E231" s="1">
+        <v>648</v>
+      </c>
+      <c r="F231" s="1">
+        <v>632</v>
+      </c>
+      <c r="G231" s="1">
+        <f t="shared" si="45"/>
+        <v>154</v>
+      </c>
+      <c r="H231" s="1">
+        <f t="shared" si="46"/>
+        <v>50</v>
+      </c>
+      <c r="I231" s="2">
+        <f t="shared" si="43"/>
+        <v>2.5666666666666664</v>
+      </c>
+      <c r="J231" s="2">
+        <f t="shared" si="44"/>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="232" spans="4:10">
+      <c r="D232">
+        <v>11</v>
+      </c>
+      <c r="E232" s="1">
+        <v>699</v>
+      </c>
+      <c r="F232" s="1">
+        <v>573</v>
+      </c>
+      <c r="G232" s="1">
+        <f t="shared" si="45"/>
+        <v>205</v>
+      </c>
+      <c r="H232" s="1">
+        <f t="shared" si="46"/>
+        <v>109</v>
+      </c>
+      <c r="I232" s="2">
+        <f t="shared" si="43"/>
+        <v>3.416666666666667</v>
+      </c>
+      <c r="J232" s="2">
+        <f t="shared" si="44"/>
+        <v>1.8166666666666667</v>
+      </c>
+    </row>
+    <row r="233" spans="4:10">
+      <c r="D233">
+        <v>12</v>
+      </c>
+      <c r="E233" s="1">
+        <v>699</v>
+      </c>
+      <c r="F233" s="1">
+        <v>440</v>
+      </c>
+      <c r="G233" s="1">
+        <f t="shared" si="45"/>
+        <v>205</v>
+      </c>
+      <c r="H233" s="1">
+        <f t="shared" si="46"/>
+        <v>242</v>
+      </c>
+      <c r="I233" s="2">
+        <f t="shared" si="43"/>
+        <v>3.416666666666667</v>
+      </c>
+      <c r="J233" s="2">
+        <f t="shared" si="44"/>
+        <v>4.0333333333333332</v>
+      </c>
+    </row>
+    <row r="234" spans="4:10">
+      <c r="D234">
+        <v>13</v>
+      </c>
+      <c r="E234" s="1">
+        <v>648</v>
+      </c>
+      <c r="F234" s="1">
+        <v>387</v>
+      </c>
+      <c r="G234" s="1">
+        <f t="shared" si="45"/>
+        <v>154</v>
+      </c>
+      <c r="H234" s="1">
+        <f t="shared" si="46"/>
+        <v>295</v>
+      </c>
+      <c r="I234" s="2">
+        <f t="shared" si="43"/>
+        <v>2.5666666666666664</v>
+      </c>
+      <c r="J234" s="2">
+        <f t="shared" si="44"/>
+        <v>4.9166666666666661</v>
+      </c>
+    </row>
+    <row r="235" spans="4:10">
+      <c r="D235">
+        <v>14</v>
+      </c>
+      <c r="E235" s="1">
+        <v>588</v>
+      </c>
+      <c r="F235" s="1">
+        <v>387</v>
+      </c>
+      <c r="G235" s="1">
+        <f t="shared" si="45"/>
+        <v>94</v>
+      </c>
+      <c r="H235" s="1">
+        <f t="shared" si="46"/>
+        <v>295</v>
+      </c>
+      <c r="I235" s="2">
+        <f t="shared" si="43"/>
+        <v>1.5666666666666669</v>
+      </c>
+      <c r="J235" s="2">
+        <f t="shared" si="44"/>
+        <v>4.9166666666666661</v>
+      </c>
+    </row>
+    <row r="236" spans="4:10">
+      <c r="D236">
+        <v>15</v>
+      </c>
+      <c r="E236" s="1">
+        <v>534</v>
+      </c>
+      <c r="F236" s="1">
+        <v>443</v>
+      </c>
+      <c r="G236" s="1">
+        <f t="shared" si="45"/>
+        <v>40</v>
+      </c>
+      <c r="H236" s="1">
+        <f t="shared" si="46"/>
+        <v>239</v>
+      </c>
+      <c r="I236" s="2">
+        <f t="shared" si="43"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J236" s="2">
+        <f t="shared" si="44"/>
+        <v>3.9833333333333334</v>
+      </c>
+    </row>
+    <row r="237" spans="4:10">
+      <c r="D237">
+        <v>16</v>
+      </c>
+      <c r="E237" s="1">
+        <v>534</v>
+      </c>
+      <c r="F237" s="1">
+        <v>472</v>
+      </c>
+      <c r="G237" s="1">
+        <f t="shared" si="45"/>
+        <v>40</v>
+      </c>
+      <c r="H237" s="1">
+        <f t="shared" si="46"/>
+        <v>210</v>
+      </c>
+      <c r="I237" s="2">
+        <f t="shared" si="43"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J237" s="2">
+        <f t="shared" si="44"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="238" spans="4:10">
+      <c r="D238" t="s">
+        <v>57</v>
+      </c>
+      <c r="I238" s="2">
+        <f t="shared" ref="I238:I242" si="47">G238/300 * 5</f>
+        <v>0</v>
+      </c>
+      <c r="J238" s="2">
+        <f t="shared" ref="J238:J242" si="48">H238/300 * 5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="4:10">
+      <c r="E239" s="1">
+        <v>723</v>
+      </c>
+      <c r="F239" s="1">
+        <v>680</v>
+      </c>
+      <c r="G239" s="1">
+        <f t="shared" ref="G239:G242" si="49">E239-494</f>
+        <v>229</v>
+      </c>
+      <c r="H239" s="1">
+        <f t="shared" ref="H239:H242" si="50">682-F239</f>
+        <v>2</v>
+      </c>
+      <c r="I239" s="2">
+        <f t="shared" si="47"/>
+        <v>3.8166666666666664</v>
+      </c>
+      <c r="J239" s="2">
+        <f t="shared" si="48"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="4:10">
+      <c r="E240" s="1">
+        <v>753</v>
+      </c>
+      <c r="F240" s="1">
+        <v>645</v>
+      </c>
+      <c r="G240" s="1">
+        <f t="shared" si="49"/>
+        <v>259</v>
+      </c>
+      <c r="H240" s="1">
+        <f t="shared" si="50"/>
+        <v>37</v>
+      </c>
+      <c r="I240" s="2">
+        <f t="shared" si="47"/>
+        <v>4.3166666666666664</v>
+      </c>
+      <c r="J240" s="2">
+        <f t="shared" si="48"/>
+        <v>0.6166666666666667</v>
+      </c>
+    </row>
+    <row r="241" spans="4:10">
+      <c r="E241" s="1">
+        <v>670</v>
+      </c>
+      <c r="F241" s="1">
+        <v>562</v>
+      </c>
+      <c r="G241" s="1">
+        <f t="shared" si="49"/>
+        <v>176</v>
+      </c>
+      <c r="H241" s="1">
+        <f t="shared" si="50"/>
+        <v>120</v>
+      </c>
+      <c r="I241" s="2">
+        <f t="shared" si="47"/>
+        <v>2.9333333333333336</v>
+      </c>
+      <c r="J241" s="2">
+        <f t="shared" si="48"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="4:10">
+      <c r="E242" s="1">
+        <v>642</v>
+      </c>
+      <c r="F242" s="1">
+        <v>589</v>
+      </c>
+      <c r="G242" s="1">
+        <f t="shared" si="49"/>
+        <v>148</v>
+      </c>
+      <c r="H242" s="1">
+        <f t="shared" si="50"/>
+        <v>93</v>
+      </c>
+      <c r="I242" s="2">
+        <f t="shared" si="47"/>
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="J242" s="2">
+        <f t="shared" si="48"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="243" spans="4:10">
+      <c r="D243" t="s">
+        <v>11</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I243" s="2">
+        <f t="shared" ref="I243:I263" si="51">G243/300 * 5</f>
+        <v>0</v>
+      </c>
+      <c r="J243" s="2">
+        <f t="shared" ref="J243:J263" si="52">H243/300 * 5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="4:10">
+      <c r="E244" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I244" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J244" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="4:10">
+      <c r="D245" t="s">
+        <v>60</v>
+      </c>
+      <c r="I245" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J245" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="4:10">
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246" s="1">
+        <v>155</v>
+      </c>
+      <c r="F246" s="1">
+        <v>561</v>
+      </c>
+      <c r="G246" s="1">
+        <f>E246-155</f>
+        <v>0</v>
+      </c>
+      <c r="H246" s="1">
+        <f>561-F246</f>
+        <v>0</v>
+      </c>
+      <c r="I246" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J246" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="4:10">
+      <c r="D247">
+        <v>2</v>
+      </c>
+      <c r="E247" s="1">
+        <v>212</v>
+      </c>
+      <c r="F247" s="1">
+        <v>561</v>
+      </c>
+      <c r="G247" s="1">
+        <f t="shared" ref="G247:G263" si="53">E247-155</f>
+        <v>57</v>
+      </c>
+      <c r="H247" s="1">
+        <f t="shared" ref="H247:H263" si="54">561-F247</f>
+        <v>0</v>
+      </c>
+      <c r="I247" s="2">
+        <f t="shared" si="51"/>
+        <v>0.95</v>
+      </c>
+      <c r="J247" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="4:10">
+      <c r="D248">
+        <v>3</v>
+      </c>
+      <c r="E248" s="1">
+        <v>212</v>
+      </c>
+      <c r="F248" s="1">
+        <v>408</v>
+      </c>
+      <c r="G248" s="1">
+        <f t="shared" si="53"/>
+        <v>57</v>
+      </c>
+      <c r="H248" s="1">
+        <f t="shared" si="54"/>
+        <v>153</v>
+      </c>
+      <c r="I248" s="2">
+        <f t="shared" si="51"/>
+        <v>0.95</v>
+      </c>
+      <c r="J248" s="2">
+        <f t="shared" si="52"/>
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="249" spans="4:10">
+      <c r="D249">
+        <v>4</v>
+      </c>
+      <c r="E249" s="1">
+        <v>355</v>
+      </c>
+      <c r="F249" s="1">
+        <v>408</v>
+      </c>
+      <c r="G249" s="1">
+        <f t="shared" si="53"/>
+        <v>200</v>
+      </c>
+      <c r="H249" s="1">
+        <f t="shared" si="54"/>
+        <v>153</v>
+      </c>
+      <c r="I249" s="2">
+        <f t="shared" si="51"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="J249" s="2">
+        <f t="shared" si="52"/>
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="250" spans="4:10">
+      <c r="E250" s="1">
+        <v>324</v>
+      </c>
+      <c r="F250" s="1">
+        <v>408</v>
+      </c>
+      <c r="G250" s="1">
+        <f t="shared" si="53"/>
+        <v>169</v>
+      </c>
+      <c r="H250" s="1">
+        <f t="shared" si="54"/>
+        <v>153</v>
+      </c>
+      <c r="I250" s="2">
+        <f t="shared" si="51"/>
+        <v>2.8166666666666669</v>
+      </c>
+      <c r="J250" s="2">
+        <f t="shared" si="52"/>
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="251" spans="4:10">
+      <c r="D251">
+        <v>5</v>
+      </c>
+      <c r="E251" s="1">
+        <v>429</v>
+      </c>
+      <c r="F251" s="1">
+        <v>340</v>
+      </c>
+      <c r="G251" s="1">
+        <f t="shared" si="53"/>
+        <v>274</v>
+      </c>
+      <c r="H251" s="1">
+        <f t="shared" si="54"/>
+        <v>221</v>
+      </c>
+      <c r="I251" s="2">
+        <f t="shared" si="51"/>
+        <v>4.5666666666666664</v>
+      </c>
+      <c r="J251" s="2">
+        <f t="shared" si="52"/>
+        <v>3.6833333333333336</v>
+      </c>
+    </row>
+    <row r="252" spans="4:10">
+      <c r="D252">
+        <v>6</v>
+      </c>
+      <c r="E252" s="1">
+        <v>430</v>
+      </c>
+      <c r="F252" s="1">
+        <v>243</v>
+      </c>
+      <c r="G252" s="1">
+        <f t="shared" si="53"/>
+        <v>275</v>
+      </c>
+      <c r="H252" s="1">
+        <f t="shared" si="54"/>
+        <v>318</v>
+      </c>
+      <c r="I252" s="2">
+        <f t="shared" si="51"/>
+        <v>4.583333333333333</v>
+      </c>
+      <c r="J252" s="2">
+        <f t="shared" si="52"/>
+        <v>5.3000000000000007</v>
+      </c>
+    </row>
+    <row r="253" spans="4:10">
+      <c r="D253">
+        <v>7</v>
+      </c>
+      <c r="E253" s="1">
+        <v>359</v>
+      </c>
+      <c r="F253" s="1">
+        <v>175</v>
+      </c>
+      <c r="G253" s="1">
+        <f t="shared" si="53"/>
+        <v>204</v>
+      </c>
+      <c r="H253" s="1">
+        <f t="shared" si="54"/>
+        <v>386</v>
+      </c>
+      <c r="I253" s="2">
+        <f t="shared" si="51"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="J253" s="2">
+        <f t="shared" si="52"/>
+        <v>6.4333333333333336</v>
+      </c>
+    </row>
+    <row r="254" spans="4:10">
+      <c r="D254">
+        <v>8</v>
+      </c>
+      <c r="E254" s="1">
+        <v>158</v>
+      </c>
+      <c r="F254" s="1">
+        <v>175</v>
+      </c>
+      <c r="G254" s="1">
+        <f t="shared" si="53"/>
+        <v>3</v>
+      </c>
+      <c r="H254" s="1">
+        <f t="shared" si="54"/>
+        <v>386</v>
+      </c>
+      <c r="I254" s="2">
+        <f t="shared" si="51"/>
+        <v>0.05</v>
+      </c>
+      <c r="J254" s="2">
+        <f t="shared" si="52"/>
+        <v>6.4333333333333336</v>
+      </c>
+    </row>
+    <row r="255" spans="4:10">
+      <c r="D255">
+        <v>9</v>
+      </c>
+      <c r="E255" s="1">
+        <v>212</v>
+      </c>
+      <c r="F255" s="1">
+        <v>355</v>
+      </c>
+      <c r="G255" s="1">
+        <f t="shared" si="53"/>
+        <v>57</v>
+      </c>
+      <c r="H255" s="1">
+        <f t="shared" si="54"/>
+        <v>206</v>
+      </c>
+      <c r="I255" s="2">
+        <f t="shared" si="51"/>
+        <v>0.95</v>
+      </c>
+      <c r="J255" s="2">
+        <f t="shared" si="52"/>
+        <v>3.4333333333333331</v>
+      </c>
+    </row>
+    <row r="256" spans="4:10">
+      <c r="D256">
+        <v>10</v>
+      </c>
+      <c r="E256" s="1">
+        <v>339</v>
+      </c>
+      <c r="F256" s="1">
+        <v>355</v>
+      </c>
+      <c r="G256" s="1">
+        <f t="shared" si="53"/>
+        <v>184</v>
+      </c>
+      <c r="H256" s="1">
+        <f t="shared" si="54"/>
+        <v>206</v>
+      </c>
+      <c r="I256" s="2">
+        <f t="shared" si="51"/>
+        <v>3.0666666666666664</v>
+      </c>
+      <c r="J256" s="2">
+        <f t="shared" si="52"/>
+        <v>3.4333333333333331</v>
+      </c>
+    </row>
+    <row r="257" spans="4:10">
+      <c r="D257">
+        <v>11</v>
+      </c>
+      <c r="E257" s="1">
+        <v>380</v>
+      </c>
+      <c r="F257" s="1">
+        <v>319</v>
+      </c>
+      <c r="G257" s="1">
+        <f t="shared" si="53"/>
+        <v>225</v>
+      </c>
+      <c r="H257" s="1">
+        <f t="shared" si="54"/>
+        <v>242</v>
+      </c>
+      <c r="I257" s="2">
+        <f t="shared" si="51"/>
+        <v>3.75</v>
+      </c>
+      <c r="J257" s="2">
+        <f t="shared" si="52"/>
+        <v>4.0333333333333332</v>
+      </c>
+    </row>
+    <row r="258" spans="4:10">
+      <c r="D258">
+        <v>12</v>
+      </c>
+      <c r="E258" s="1">
+        <v>380</v>
+      </c>
+      <c r="F258" s="1">
+        <v>264</v>
+      </c>
+      <c r="G258" s="1">
+        <f t="shared" si="53"/>
+        <v>225</v>
+      </c>
+      <c r="H258" s="1">
+        <f t="shared" si="54"/>
+        <v>297</v>
+      </c>
+      <c r="I258" s="2">
+        <f t="shared" si="51"/>
+        <v>3.75</v>
+      </c>
+      <c r="J258" s="2">
+        <f t="shared" si="52"/>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="259" spans="4:10">
+      <c r="D259">
+        <v>13</v>
+      </c>
+      <c r="E259" s="1">
+        <v>339</v>
+      </c>
+      <c r="F259" s="1">
+        <v>227</v>
+      </c>
+      <c r="G259" s="1">
+        <f t="shared" si="53"/>
+        <v>184</v>
+      </c>
+      <c r="H259" s="1">
+        <f t="shared" si="54"/>
+        <v>334</v>
+      </c>
+      <c r="I259" s="2">
+        <f t="shared" si="51"/>
+        <v>3.0666666666666664</v>
+      </c>
+      <c r="J259" s="2">
+        <f t="shared" si="52"/>
+        <v>5.5666666666666664</v>
+      </c>
+    </row>
+    <row r="260" spans="4:10">
+      <c r="D260">
+        <v>14</v>
+      </c>
+      <c r="E260" s="1">
+        <v>212</v>
+      </c>
+      <c r="F260" s="1">
+        <v>227</v>
+      </c>
+      <c r="G260" s="1">
+        <f t="shared" si="53"/>
+        <v>57</v>
+      </c>
+      <c r="H260" s="1">
+        <f t="shared" si="54"/>
+        <v>334</v>
+      </c>
+      <c r="I260" s="2">
+        <f t="shared" si="51"/>
+        <v>0.95</v>
+      </c>
+      <c r="J260" s="2">
+        <f t="shared" si="52"/>
+        <v>5.5666666666666664</v>
+      </c>
+    </row>
+    <row r="261" spans="4:10">
+      <c r="D261" t="s">
+        <v>61</v>
+      </c>
+      <c r="G261" s="1">
+        <f t="shared" si="53"/>
+        <v>-155</v>
+      </c>
+      <c r="H261" s="1">
+        <f t="shared" si="54"/>
+        <v>561</v>
+      </c>
+      <c r="I261" s="2">
+        <f t="shared" si="51"/>
+        <v>-2.5833333333333335</v>
+      </c>
+      <c r="J261" s="2">
+        <f t="shared" si="52"/>
+        <v>9.3500000000000014</v>
+      </c>
+    </row>
+    <row r="262" spans="4:10">
+      <c r="D262">
+        <v>15</v>
+      </c>
+      <c r="E262" s="1">
+        <v>386</v>
+      </c>
+      <c r="F262" s="1">
+        <v>561</v>
+      </c>
+      <c r="G262" s="1">
+        <f t="shared" si="53"/>
+        <v>231</v>
+      </c>
+      <c r="H262" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="I262" s="2">
+        <f t="shared" si="51"/>
+        <v>3.85</v>
+      </c>
+      <c r="J262" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="4:10">
+      <c r="D263">
+        <v>16</v>
+      </c>
+      <c r="E263" s="1">
+        <v>443</v>
+      </c>
+      <c r="F263" s="1">
+        <v>562</v>
+      </c>
+      <c r="G263" s="1">
+        <f t="shared" si="53"/>
+        <v>288</v>
+      </c>
+      <c r="H263" s="1">
+        <f t="shared" si="54"/>
+        <v>-1</v>
+      </c>
+      <c r="I263" s="2">
+        <f t="shared" si="51"/>
+        <v>4.8</v>
+      </c>
+      <c r="J263" s="2">
+        <f t="shared" si="52"/>
+        <v>-1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="4:10">
+      <c r="D264" t="s">
+        <v>40</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="265" spans="4:10">
+      <c r="E265" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="266" spans="4:10">
+      <c r="D266" t="s">
+        <v>16</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/public/images/text.xlsx
+++ b/public/images/text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="-20100" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="15300" yWindow="120" windowWidth="10560" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>A</t>
   </si>
@@ -214,6 +214,21 @@
   </si>
   <si>
     <t>9, 10, 11, 12 to 14</t>
+  </si>
+  <si>
+    <t>1, 2, to 10</t>
+  </si>
+  <si>
+    <t>10, 11, 17, 9</t>
+  </si>
+  <si>
+    <t>11 to 17</t>
+  </si>
+  <si>
+    <t>18 to 24</t>
+  </si>
+  <si>
+    <t>5, 18, 24, 4</t>
   </si>
 </sst>
 </file>
@@ -1343,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:M266"/>
+  <dimension ref="D1:M296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="I256" sqref="I256:J256"/>
+    <sheetView tabSelected="1" topLeftCell="B262" workbookViewId="0">
+      <selection activeCell="E297" sqref="E297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2952,7 +2967,7 @@
         <v>592</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ref="G67:G78" si="8">E67-454</f>
+        <f t="shared" ref="G67:G77" si="8">E67-454</f>
         <v>172</v>
       </c>
       <c r="H67" s="1">
@@ -7655,11 +7670,27 @@
       <c r="E264" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="I264" s="2">
+        <f t="shared" ref="I264:I291" si="55">G264/300 * 5</f>
+        <v>0</v>
+      </c>
+      <c r="J264" s="2">
+        <f t="shared" ref="J264:J291" si="56">H264/300 * 5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="265" spans="4:10">
       <c r="E265" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="I265" s="2">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="J265" s="2">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="4:10">
       <c r="D266" t="s">
@@ -7667,6 +7698,720 @@
       </c>
       <c r="E266" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="I266" s="2">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="J266" s="2">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="4:10">
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267" s="1">
+        <v>247</v>
+      </c>
+      <c r="F267" s="1">
+        <v>595</v>
+      </c>
+      <c r="G267" s="1">
+        <f>E267-247</f>
+        <v>0</v>
+      </c>
+      <c r="H267" s="1">
+        <f>595-F267</f>
+        <v>0</v>
+      </c>
+      <c r="I267" s="2">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="J267" s="2">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="4:10">
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268" s="1">
+        <v>310</v>
+      </c>
+      <c r="F268" s="1">
+        <v>595</v>
+      </c>
+      <c r="G268" s="1">
+        <f t="shared" ref="G268:G291" si="57">E268-247</f>
+        <v>63</v>
+      </c>
+      <c r="H268" s="1">
+        <f t="shared" ref="H268:H291" si="58">595-F268</f>
+        <v>0</v>
+      </c>
+      <c r="I268" s="2">
+        <f t="shared" si="55"/>
+        <v>1.05</v>
+      </c>
+      <c r="J268" s="2">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="4:10">
+      <c r="D269">
+        <v>2</v>
+      </c>
+      <c r="E269" s="1">
+        <v>421</v>
+      </c>
+      <c r="F269" s="1">
+        <v>595</v>
+      </c>
+      <c r="G269" s="1">
+        <f t="shared" si="57"/>
+        <v>174</v>
+      </c>
+      <c r="H269" s="1">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="I269" s="2">
+        <f t="shared" si="55"/>
+        <v>2.9</v>
+      </c>
+      <c r="J269" s="2">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="4:10">
+      <c r="D270">
+        <v>3</v>
+      </c>
+      <c r="E270" s="1">
+        <v>483</v>
+      </c>
+      <c r="F270" s="1">
+        <v>529</v>
+      </c>
+      <c r="G270" s="1">
+        <f t="shared" si="57"/>
+        <v>236</v>
+      </c>
+      <c r="H270" s="1">
+        <f t="shared" si="58"/>
+        <v>66</v>
+      </c>
+      <c r="I270" s="2">
+        <f t="shared" si="55"/>
+        <v>3.9333333333333331</v>
+      </c>
+      <c r="J270" s="2">
+        <f t="shared" si="56"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="271" spans="4:10">
+      <c r="D271">
+        <v>4</v>
+      </c>
+      <c r="E271" s="1">
+        <v>483</v>
+      </c>
+      <c r="F271" s="1">
+        <v>444</v>
+      </c>
+      <c r="G271" s="1">
+        <f t="shared" si="57"/>
+        <v>236</v>
+      </c>
+      <c r="H271" s="1">
+        <f t="shared" si="58"/>
+        <v>151</v>
+      </c>
+      <c r="I271" s="2">
+        <f t="shared" si="55"/>
+        <v>3.9333333333333331</v>
+      </c>
+      <c r="J271" s="2">
+        <f t="shared" si="56"/>
+        <v>2.5166666666666666</v>
+      </c>
+    </row>
+    <row r="272" spans="4:10">
+      <c r="D272">
+        <v>5</v>
+      </c>
+      <c r="E272" s="1">
+        <v>483</v>
+      </c>
+      <c r="F272" s="1">
+        <v>310</v>
+      </c>
+      <c r="G272" s="1">
+        <f t="shared" si="57"/>
+        <v>236</v>
+      </c>
+      <c r="H272" s="1">
+        <f t="shared" si="58"/>
+        <v>285</v>
+      </c>
+      <c r="I272" s="2">
+        <f t="shared" si="55"/>
+        <v>3.9333333333333331</v>
+      </c>
+      <c r="J272" s="2">
+        <f t="shared" si="56"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="273" spans="4:10">
+      <c r="D273">
+        <v>6</v>
+      </c>
+      <c r="E273" s="1">
+        <v>418</v>
+      </c>
+      <c r="F273" s="1">
+        <v>249</v>
+      </c>
+      <c r="G273" s="1">
+        <f t="shared" si="57"/>
+        <v>171</v>
+      </c>
+      <c r="H273" s="1">
+        <f t="shared" si="58"/>
+        <v>346</v>
+      </c>
+      <c r="I273" s="2">
+        <f t="shared" si="55"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="J273" s="2">
+        <f t="shared" si="56"/>
+        <v>5.7666666666666666</v>
+      </c>
+    </row>
+    <row r="274" spans="4:10">
+      <c r="D274">
+        <v>7</v>
+      </c>
+      <c r="E274" s="1">
+        <v>313</v>
+      </c>
+      <c r="F274" s="1">
+        <v>249</v>
+      </c>
+      <c r="G274" s="1">
+        <f t="shared" si="57"/>
+        <v>66</v>
+      </c>
+      <c r="H274" s="1">
+        <f t="shared" si="58"/>
+        <v>346</v>
+      </c>
+      <c r="I274" s="2">
+        <f t="shared" si="55"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J274" s="2">
+        <f t="shared" si="56"/>
+        <v>5.7666666666666666</v>
+      </c>
+    </row>
+    <row r="275" spans="4:10">
+      <c r="D275">
+        <v>8</v>
+      </c>
+      <c r="E275" s="1">
+        <v>247</v>
+      </c>
+      <c r="F275" s="1">
+        <v>310</v>
+      </c>
+      <c r="G275" s="1">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="H275" s="1">
+        <f t="shared" si="58"/>
+        <v>285</v>
+      </c>
+      <c r="I275" s="2">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="J275" s="2">
+        <f t="shared" si="56"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="276" spans="4:10">
+      <c r="D276">
+        <v>9</v>
+      </c>
+      <c r="E276" s="1">
+        <v>247</v>
+      </c>
+      <c r="F276" s="1">
+        <v>397</v>
+      </c>
+      <c r="G276" s="1">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="H276" s="1">
+        <f t="shared" si="58"/>
+        <v>198</v>
+      </c>
+      <c r="I276" s="2">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="J276" s="2">
+        <f t="shared" si="56"/>
+        <v>3.3000000000000003</v>
+      </c>
+    </row>
+    <row r="277" spans="4:10">
+      <c r="D277">
+        <v>10</v>
+      </c>
+      <c r="E277" s="1">
+        <v>247</v>
+      </c>
+      <c r="F277" s="1">
+        <v>529</v>
+      </c>
+      <c r="G277" s="1">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="H277" s="1">
+        <f t="shared" si="58"/>
+        <v>66</v>
+      </c>
+      <c r="I277" s="2">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="J277" s="2">
+        <f t="shared" si="56"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="4:10">
+      <c r="D278">
+        <v>11</v>
+      </c>
+      <c r="E278" s="1">
+        <v>284</v>
+      </c>
+      <c r="F278" s="1">
+        <v>496</v>
+      </c>
+      <c r="G278" s="1">
+        <f t="shared" si="57"/>
+        <v>37</v>
+      </c>
+      <c r="H278" s="1">
+        <f t="shared" si="58"/>
+        <v>99</v>
+      </c>
+      <c r="I278" s="2">
+        <f t="shared" si="55"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="J278" s="2">
+        <f t="shared" si="56"/>
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="4:10">
+      <c r="D279">
+        <v>12</v>
+      </c>
+      <c r="E279" s="1">
+        <v>331</v>
+      </c>
+      <c r="F279" s="1">
+        <v>543</v>
+      </c>
+      <c r="G279" s="1">
+        <f t="shared" si="57"/>
+        <v>84</v>
+      </c>
+      <c r="H279" s="1">
+        <f t="shared" si="58"/>
+        <v>52</v>
+      </c>
+      <c r="I279" s="2">
+        <f t="shared" si="55"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="J279" s="2">
+        <f t="shared" si="56"/>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="280" spans="4:10">
+      <c r="D280">
+        <v>13</v>
+      </c>
+      <c r="E280" s="1">
+        <v>399</v>
+      </c>
+      <c r="F280" s="1">
+        <v>543</v>
+      </c>
+      <c r="G280" s="1">
+        <f t="shared" si="57"/>
+        <v>152</v>
+      </c>
+      <c r="H280" s="1">
+        <f t="shared" si="58"/>
+        <v>52</v>
+      </c>
+      <c r="I280" s="2">
+        <f t="shared" si="55"/>
+        <v>2.5333333333333337</v>
+      </c>
+      <c r="J280" s="2">
+        <f t="shared" si="56"/>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="281" spans="4:10">
+      <c r="D281">
+        <v>14</v>
+      </c>
+      <c r="E281" s="1">
+        <v>432</v>
+      </c>
+      <c r="F281" s="1">
+        <v>510</v>
+      </c>
+      <c r="G281" s="1">
+        <f t="shared" si="57"/>
+        <v>185</v>
+      </c>
+      <c r="H281" s="1">
+        <f t="shared" si="58"/>
+        <v>85</v>
+      </c>
+      <c r="I281" s="2">
+        <f t="shared" si="55"/>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="J281" s="2">
+        <f t="shared" si="56"/>
+        <v>1.4166666666666665</v>
+      </c>
+    </row>
+    <row r="282" spans="4:10">
+      <c r="D282">
+        <v>15</v>
+      </c>
+      <c r="E282" s="1">
+        <v>432</v>
+      </c>
+      <c r="F282" s="1">
+        <v>465</v>
+      </c>
+      <c r="G282" s="1">
+        <f t="shared" si="57"/>
+        <v>185</v>
+      </c>
+      <c r="H282" s="1">
+        <f t="shared" si="58"/>
+        <v>130</v>
+      </c>
+      <c r="I282" s="2">
+        <f t="shared" si="55"/>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="J282" s="2">
+        <f t="shared" si="56"/>
+        <v>2.166666666666667</v>
+      </c>
+    </row>
+    <row r="283" spans="4:10">
+      <c r="D283">
+        <v>16</v>
+      </c>
+      <c r="E283" s="1">
+        <v>399</v>
+      </c>
+      <c r="F283" s="1">
+        <v>437</v>
+      </c>
+      <c r="G283" s="1">
+        <f t="shared" si="57"/>
+        <v>152</v>
+      </c>
+      <c r="H283" s="1">
+        <f t="shared" si="58"/>
+        <v>158</v>
+      </c>
+      <c r="I283" s="2">
+        <f t="shared" si="55"/>
+        <v>2.5333333333333337</v>
+      </c>
+      <c r="J283" s="2">
+        <f t="shared" si="56"/>
+        <v>2.6333333333333329</v>
+      </c>
+    </row>
+    <row r="284" spans="4:10">
+      <c r="D284">
+        <v>17</v>
+      </c>
+      <c r="E284" s="1">
+        <v>284</v>
+      </c>
+      <c r="F284" s="1">
+        <v>437</v>
+      </c>
+      <c r="G284" s="1">
+        <f t="shared" si="57"/>
+        <v>37</v>
+      </c>
+      <c r="H284" s="1">
+        <f t="shared" si="58"/>
+        <v>158</v>
+      </c>
+      <c r="I284" s="2">
+        <f t="shared" si="55"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="J284" s="2">
+        <f t="shared" si="56"/>
+        <v>2.6333333333333329</v>
+      </c>
+    </row>
+    <row r="285" spans="4:10">
+      <c r="D285">
+        <v>18</v>
+      </c>
+      <c r="E285" s="1">
+        <v>443</v>
+      </c>
+      <c r="F285" s="1">
+        <v>341</v>
+      </c>
+      <c r="G285" s="1">
+        <f t="shared" si="57"/>
+        <v>196</v>
+      </c>
+      <c r="H285" s="1">
+        <f t="shared" si="58"/>
+        <v>254</v>
+      </c>
+      <c r="I285" s="2">
+        <f t="shared" si="55"/>
+        <v>3.2666666666666666</v>
+      </c>
+      <c r="J285" s="2">
+        <f t="shared" si="56"/>
+        <v>4.2333333333333334</v>
+      </c>
+    </row>
+    <row r="286" spans="4:10">
+      <c r="D286">
+        <v>19</v>
+      </c>
+      <c r="E286" s="1">
+        <v>398</v>
+      </c>
+      <c r="F286" s="1">
+        <v>298</v>
+      </c>
+      <c r="G286" s="1">
+        <f t="shared" si="57"/>
+        <v>151</v>
+      </c>
+      <c r="H286" s="1">
+        <f t="shared" si="58"/>
+        <v>297</v>
+      </c>
+      <c r="I286" s="2">
+        <f t="shared" si="55"/>
+        <v>2.5166666666666666</v>
+      </c>
+      <c r="J286" s="2">
+        <f t="shared" si="56"/>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="287" spans="4:10">
+      <c r="D287">
+        <v>20</v>
+      </c>
+      <c r="E287" s="1">
+        <v>332</v>
+      </c>
+      <c r="F287" s="1">
+        <v>298</v>
+      </c>
+      <c r="G287" s="1">
+        <f t="shared" si="57"/>
+        <v>85</v>
+      </c>
+      <c r="H287" s="1">
+        <f t="shared" si="58"/>
+        <v>297</v>
+      </c>
+      <c r="I287" s="2">
+        <f t="shared" si="55"/>
+        <v>1.4166666666666665</v>
+      </c>
+      <c r="J287" s="2">
+        <f t="shared" si="56"/>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="288" spans="4:10">
+      <c r="D288">
+        <v>21</v>
+      </c>
+      <c r="E288" s="1">
+        <v>297</v>
+      </c>
+      <c r="F288" s="1">
+        <v>327</v>
+      </c>
+      <c r="G288" s="1">
+        <f t="shared" si="57"/>
+        <v>50</v>
+      </c>
+      <c r="H288" s="1">
+        <f t="shared" si="58"/>
+        <v>268</v>
+      </c>
+      <c r="I288" s="2">
+        <f t="shared" si="55"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="J288" s="2">
+        <f t="shared" si="56"/>
+        <v>4.4666666666666668</v>
+      </c>
+    </row>
+    <row r="289" spans="4:10">
+      <c r="D289">
+        <v>22</v>
+      </c>
+      <c r="E289" s="1">
+        <v>297</v>
+      </c>
+      <c r="F289" s="1">
+        <v>376</v>
+      </c>
+      <c r="G289" s="1">
+        <f t="shared" si="57"/>
+        <v>50</v>
+      </c>
+      <c r="H289" s="1">
+        <f t="shared" si="58"/>
+        <v>219</v>
+      </c>
+      <c r="I289" s="2">
+        <f t="shared" si="55"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="J289" s="2">
+        <f t="shared" si="56"/>
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="290" spans="4:10">
+      <c r="D290">
+        <v>23</v>
+      </c>
+      <c r="E290" s="1">
+        <v>310</v>
+      </c>
+      <c r="F290" s="1">
+        <v>388</v>
+      </c>
+      <c r="G290" s="1">
+        <f t="shared" si="57"/>
+        <v>63</v>
+      </c>
+      <c r="H290" s="1">
+        <f t="shared" si="58"/>
+        <v>207</v>
+      </c>
+      <c r="I290" s="2">
+        <f t="shared" si="55"/>
+        <v>1.05</v>
+      </c>
+      <c r="J290" s="2">
+        <f t="shared" si="56"/>
+        <v>3.4499999999999997</v>
+      </c>
+    </row>
+    <row r="291" spans="4:10">
+      <c r="D291">
+        <v>24</v>
+      </c>
+      <c r="E291" s="1">
+        <v>421</v>
+      </c>
+      <c r="F291" s="1">
+        <v>389</v>
+      </c>
+      <c r="G291" s="1">
+        <f t="shared" si="57"/>
+        <v>174</v>
+      </c>
+      <c r="H291" s="1">
+        <f t="shared" si="58"/>
+        <v>206</v>
+      </c>
+      <c r="I291" s="2">
+        <f t="shared" si="55"/>
+        <v>2.9</v>
+      </c>
+      <c r="J291" s="2">
+        <f t="shared" si="56"/>
+        <v>3.4333333333333331</v>
+      </c>
+    </row>
+    <row r="292" spans="4:10">
+      <c r="D292" t="s">
+        <v>40</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="293" spans="4:10">
+      <c r="D293" t="s">
+        <v>16</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="294" spans="4:10">
+      <c r="E294" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="295" spans="4:10">
+      <c r="E295" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="296" spans="4:10">
+      <c r="E296" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/public/images/text.xlsx
+++ b/public/images/text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="120" windowWidth="10560" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="15300" yWindow="120" windowWidth="13500" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
   <si>
     <t>A</t>
   </si>
@@ -230,6 +230,51 @@
   <si>
     <t>5, 18, 24, 4</t>
   </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>5, 6, 7, 8</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>1, to 4</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>4 to 7</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>1, 2, 3+y, 6+y</t>
+  </si>
+  <si>
+    <t>3, 4, 5, 6</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>8, 9, 10</t>
+  </si>
+  <si>
+    <t>5-x, 6-x, 7</t>
+  </si>
 </sst>
 </file>
 
@@ -280,8 +325,110 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="371">
+  <cellStyleXfs count="473">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -658,7 +805,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="371">
+  <cellStyles count="473">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -844,6 +991,57 @@
     <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1029,6 +1227,57 @@
     <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1358,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:M296"/>
+  <dimension ref="D1:M393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B262" workbookViewId="0">
-      <selection activeCell="E297" sqref="E297"/>
+    <sheetView tabSelected="1" topLeftCell="F364" workbookViewId="0">
+      <selection activeCell="E393" sqref="E393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8390,6 +8639,14 @@
       <c r="E292" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="I292" s="2">
+        <f t="shared" ref="I292:I306" si="59">G292/300 * 5</f>
+        <v>0</v>
+      </c>
+      <c r="J292" s="2">
+        <f t="shared" ref="J292:J306" si="60">H292/300 * 5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="4:10">
       <c r="D293" t="s">
@@ -8398,20 +8655,2327 @@
       <c r="E293" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="I293" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J293" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="294" spans="4:10">
       <c r="E294" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="I294" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J294" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="295" spans="4:10">
       <c r="E295" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="I295" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J295" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="296" spans="4:10">
       <c r="E296" s="1" t="s">
         <v>69</v>
+      </c>
+      <c r="I296" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J296" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="4:10">
+      <c r="E297" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I297" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J297" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="4:10">
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298" s="1">
+        <v>265</v>
+      </c>
+      <c r="F298" s="1">
+        <v>596</v>
+      </c>
+      <c r="G298" s="1">
+        <f>E298-265</f>
+        <v>0</v>
+      </c>
+      <c r="H298" s="1">
+        <f>596-F298</f>
+        <v>0</v>
+      </c>
+      <c r="I298" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J298" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="4:10">
+      <c r="D299">
+        <v>1</v>
+      </c>
+      <c r="E299" s="1">
+        <v>351</v>
+      </c>
+      <c r="F299" s="1">
+        <v>596</v>
+      </c>
+      <c r="G299" s="1">
+        <f t="shared" ref="G299:G306" si="61">E299-265</f>
+        <v>86</v>
+      </c>
+      <c r="H299" s="1">
+        <f t="shared" ref="H299:H306" si="62">596-F299</f>
+        <v>0</v>
+      </c>
+      <c r="I299" s="2">
+        <f t="shared" si="59"/>
+        <v>1.4333333333333333</v>
+      </c>
+      <c r="J299" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="4:10">
+      <c r="D300">
+        <v>2</v>
+      </c>
+      <c r="E300" s="1">
+        <v>394</v>
+      </c>
+      <c r="F300" s="1">
+        <v>596</v>
+      </c>
+      <c r="G300" s="1">
+        <f t="shared" si="61"/>
+        <v>129</v>
+      </c>
+      <c r="H300" s="1">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="I300" s="2">
+        <f t="shared" si="59"/>
+        <v>2.15</v>
+      </c>
+      <c r="J300" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="4:10">
+      <c r="D301">
+        <v>3</v>
+      </c>
+      <c r="E301" s="1">
+        <v>394</v>
+      </c>
+      <c r="F301" s="1">
+        <v>249</v>
+      </c>
+      <c r="G301" s="1">
+        <f t="shared" si="61"/>
+        <v>129</v>
+      </c>
+      <c r="H301" s="1">
+        <f t="shared" si="62"/>
+        <v>347</v>
+      </c>
+      <c r="I301" s="2">
+        <f t="shared" si="59"/>
+        <v>2.15</v>
+      </c>
+      <c r="J301" s="2">
+        <f t="shared" si="60"/>
+        <v>5.7833333333333332</v>
+      </c>
+    </row>
+    <row r="302" spans="4:10">
+      <c r="D302">
+        <v>4</v>
+      </c>
+      <c r="E302" s="1">
+        <v>351</v>
+      </c>
+      <c r="F302" s="1">
+        <v>249</v>
+      </c>
+      <c r="G302" s="1">
+        <f t="shared" si="61"/>
+        <v>86</v>
+      </c>
+      <c r="H302" s="1">
+        <f t="shared" si="62"/>
+        <v>347</v>
+      </c>
+      <c r="I302" s="2">
+        <f t="shared" si="59"/>
+        <v>1.4333333333333333</v>
+      </c>
+      <c r="J302" s="2">
+        <f t="shared" si="60"/>
+        <v>5.7833333333333332</v>
+      </c>
+    </row>
+    <row r="303" spans="4:10">
+      <c r="D303">
+        <v>5</v>
+      </c>
+      <c r="E303" s="1">
+        <v>265</v>
+      </c>
+      <c r="F303" s="1">
+        <v>293</v>
+      </c>
+      <c r="G303" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="H303" s="1">
+        <f t="shared" si="62"/>
+        <v>303</v>
+      </c>
+      <c r="I303" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J303" s="2">
+        <f t="shared" si="60"/>
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="304" spans="4:10">
+      <c r="D304">
+        <v>6</v>
+      </c>
+      <c r="E304" s="1">
+        <v>473</v>
+      </c>
+      <c r="F304" s="1">
+        <v>293</v>
+      </c>
+      <c r="G304" s="1">
+        <f t="shared" si="61"/>
+        <v>208</v>
+      </c>
+      <c r="H304" s="1">
+        <f t="shared" si="62"/>
+        <v>303</v>
+      </c>
+      <c r="I304" s="2">
+        <f t="shared" si="59"/>
+        <v>3.4666666666666668</v>
+      </c>
+      <c r="J304" s="2">
+        <f t="shared" si="60"/>
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="305" spans="4:10">
+      <c r="D305">
+        <v>7</v>
+      </c>
+      <c r="E305" s="1">
+        <v>473</v>
+      </c>
+      <c r="F305" s="1">
+        <v>250</v>
+      </c>
+      <c r="G305" s="1">
+        <f t="shared" si="61"/>
+        <v>208</v>
+      </c>
+      <c r="H305" s="1">
+        <f t="shared" si="62"/>
+        <v>346</v>
+      </c>
+      <c r="I305" s="2">
+        <f t="shared" si="59"/>
+        <v>3.4666666666666668</v>
+      </c>
+      <c r="J305" s="2">
+        <f t="shared" si="60"/>
+        <v>5.7666666666666666</v>
+      </c>
+    </row>
+    <row r="306" spans="4:10">
+      <c r="D306">
+        <v>8</v>
+      </c>
+      <c r="E306" s="1">
+        <v>265</v>
+      </c>
+      <c r="F306" s="1">
+        <v>250</v>
+      </c>
+      <c r="G306" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="H306" s="1">
+        <f t="shared" si="62"/>
+        <v>346</v>
+      </c>
+      <c r="I306" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J306" s="2">
+        <f t="shared" si="60"/>
+        <v>5.7666666666666666</v>
+      </c>
+    </row>
+    <row r="307" spans="4:10">
+      <c r="D307" t="s">
+        <v>40</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I307" s="2">
+        <f t="shared" ref="I307:I322" si="63">G307/300 * 5</f>
+        <v>0</v>
+      </c>
+      <c r="J307" s="2">
+        <f t="shared" ref="J307:J322" si="64">H307/300 * 5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="4:10">
+      <c r="E308" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I308" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="J308" s="2">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="4:10">
+      <c r="E309" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I309" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="J309" s="2">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="4:10">
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310" s="1">
+        <v>208</v>
+      </c>
+      <c r="F310" s="1">
+        <v>607</v>
+      </c>
+      <c r="G310" s="1">
+        <f>E310-208</f>
+        <v>0</v>
+      </c>
+      <c r="H310" s="1">
+        <f>607-F310</f>
+        <v>0</v>
+      </c>
+      <c r="I310" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="J310" s="2">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="4:10">
+      <c r="D311">
+        <v>1</v>
+      </c>
+      <c r="E311" s="1">
+        <v>288</v>
+      </c>
+      <c r="F311" s="1">
+        <v>607</v>
+      </c>
+      <c r="G311" s="1">
+        <f t="shared" ref="G311:G322" si="65">E311-208</f>
+        <v>80</v>
+      </c>
+      <c r="H311" s="1">
+        <f t="shared" ref="H311:H322" si="66">607-F311</f>
+        <v>0</v>
+      </c>
+      <c r="I311" s="2">
+        <f t="shared" si="63"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J311" s="2">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="4:10">
+      <c r="D312">
+        <v>2</v>
+      </c>
+      <c r="E312" s="1">
+        <v>387</v>
+      </c>
+      <c r="F312" s="1">
+        <v>607</v>
+      </c>
+      <c r="G312" s="1">
+        <f t="shared" si="65"/>
+        <v>179</v>
+      </c>
+      <c r="H312" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I312" s="2">
+        <f t="shared" si="63"/>
+        <v>2.9833333333333334</v>
+      </c>
+      <c r="J312" s="2">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="4:10">
+      <c r="D313">
+        <v>3</v>
+      </c>
+      <c r="E313" s="1">
+        <v>463</v>
+      </c>
+      <c r="F313" s="1">
+        <v>521</v>
+      </c>
+      <c r="G313" s="1">
+        <f t="shared" si="65"/>
+        <v>255</v>
+      </c>
+      <c r="H313" s="1">
+        <f t="shared" si="66"/>
+        <v>86</v>
+      </c>
+      <c r="I313" s="2">
+        <f t="shared" si="63"/>
+        <v>4.25</v>
+      </c>
+      <c r="J313" s="2">
+        <f t="shared" si="64"/>
+        <v>1.4333333333333333</v>
+      </c>
+    </row>
+    <row r="314" spans="4:10">
+      <c r="D314">
+        <v>4</v>
+      </c>
+      <c r="E314" s="1">
+        <v>463</v>
+      </c>
+      <c r="F314" s="1">
+        <v>266</v>
+      </c>
+      <c r="G314" s="1">
+        <f t="shared" si="65"/>
+        <v>255</v>
+      </c>
+      <c r="H314" s="1">
+        <f t="shared" si="66"/>
+        <v>341</v>
+      </c>
+      <c r="I314" s="2">
+        <f t="shared" si="63"/>
+        <v>4.25</v>
+      </c>
+      <c r="J314" s="2">
+        <f t="shared" si="64"/>
+        <v>5.6833333333333336</v>
+      </c>
+    </row>
+    <row r="315" spans="4:10">
+      <c r="D315">
+        <v>5</v>
+      </c>
+      <c r="E315" s="1">
+        <v>213</v>
+      </c>
+      <c r="F315" s="1">
+        <v>266</v>
+      </c>
+      <c r="G315" s="1">
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+      <c r="H315" s="1">
+        <f t="shared" si="66"/>
+        <v>341</v>
+      </c>
+      <c r="I315" s="2">
+        <f t="shared" si="63"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J315" s="2">
+        <f t="shared" si="64"/>
+        <v>5.6833333333333336</v>
+      </c>
+    </row>
+    <row r="316" spans="4:10">
+      <c r="D316">
+        <v>6</v>
+      </c>
+      <c r="E316" s="1">
+        <v>213</v>
+      </c>
+      <c r="F316" s="1">
+        <v>520</v>
+      </c>
+      <c r="G316" s="1">
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+      <c r="H316" s="1">
+        <f t="shared" si="66"/>
+        <v>87</v>
+      </c>
+      <c r="I316" s="2">
+        <f t="shared" si="63"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J316" s="2">
+        <f t="shared" si="64"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="317" spans="4:10">
+      <c r="D317">
+        <v>7</v>
+      </c>
+      <c r="E317" s="1">
+        <v>308</v>
+      </c>
+      <c r="F317" s="1">
+        <v>561</v>
+      </c>
+      <c r="G317" s="1">
+        <f t="shared" si="65"/>
+        <v>100</v>
+      </c>
+      <c r="H317" s="1">
+        <f t="shared" si="66"/>
+        <v>46</v>
+      </c>
+      <c r="I317" s="2">
+        <f t="shared" si="63"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="J317" s="2">
+        <f t="shared" si="64"/>
+        <v>0.76666666666666661</v>
+      </c>
+    </row>
+    <row r="318" spans="4:10">
+      <c r="D318">
+        <v>8</v>
+      </c>
+      <c r="E318" s="1">
+        <v>368</v>
+      </c>
+      <c r="F318" s="1">
+        <v>561</v>
+      </c>
+      <c r="G318" s="1">
+        <f t="shared" si="65"/>
+        <v>160</v>
+      </c>
+      <c r="H318" s="1">
+        <f t="shared" si="66"/>
+        <v>46</v>
+      </c>
+      <c r="I318" s="2">
+        <f t="shared" si="63"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="J318" s="2">
+        <f t="shared" si="64"/>
+        <v>0.76666666666666661</v>
+      </c>
+    </row>
+    <row r="319" spans="4:10">
+      <c r="D319">
+        <v>9</v>
+      </c>
+      <c r="E319" s="1">
+        <v>420</v>
+      </c>
+      <c r="F319" s="1">
+        <v>503</v>
+      </c>
+      <c r="G319" s="1">
+        <f t="shared" si="65"/>
+        <v>212</v>
+      </c>
+      <c r="H319" s="1">
+        <f t="shared" si="66"/>
+        <v>104</v>
+      </c>
+      <c r="I319" s="2">
+        <f t="shared" si="63"/>
+        <v>3.5333333333333332</v>
+      </c>
+      <c r="J319" s="2">
+        <f t="shared" si="64"/>
+        <v>1.7333333333333334</v>
+      </c>
+    </row>
+    <row r="320" spans="4:10">
+      <c r="D320">
+        <v>10</v>
+      </c>
+      <c r="E320" s="1">
+        <v>420</v>
+      </c>
+      <c r="F320" s="1">
+        <v>264</v>
+      </c>
+      <c r="G320" s="1">
+        <f t="shared" si="65"/>
+        <v>212</v>
+      </c>
+      <c r="H320" s="1">
+        <f t="shared" si="66"/>
+        <v>343</v>
+      </c>
+      <c r="I320" s="2">
+        <f t="shared" si="63"/>
+        <v>3.5333333333333332</v>
+      </c>
+      <c r="J320" s="2">
+        <f t="shared" si="64"/>
+        <v>5.7166666666666668</v>
+      </c>
+    </row>
+    <row r="321" spans="4:10">
+      <c r="D321">
+        <v>11</v>
+      </c>
+      <c r="E321" s="1">
+        <v>254</v>
+      </c>
+      <c r="F321" s="1">
+        <v>264</v>
+      </c>
+      <c r="G321" s="1">
+        <f t="shared" si="65"/>
+        <v>46</v>
+      </c>
+      <c r="H321" s="1">
+        <f t="shared" si="66"/>
+        <v>343</v>
+      </c>
+      <c r="I321" s="2">
+        <f t="shared" si="63"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="J321" s="2">
+        <f t="shared" si="64"/>
+        <v>5.7166666666666668</v>
+      </c>
+    </row>
+    <row r="322" spans="4:10">
+      <c r="D322">
+        <v>12</v>
+      </c>
+      <c r="E322" s="1">
+        <v>254</v>
+      </c>
+      <c r="F322" s="1">
+        <v>503</v>
+      </c>
+      <c r="G322" s="1">
+        <f t="shared" si="65"/>
+        <v>46</v>
+      </c>
+      <c r="H322" s="1">
+        <f t="shared" si="66"/>
+        <v>104</v>
+      </c>
+      <c r="I322" s="2">
+        <f t="shared" si="63"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="J322" s="2">
+        <f t="shared" si="64"/>
+        <v>1.7333333333333334</v>
+      </c>
+    </row>
+    <row r="323" spans="4:10">
+      <c r="D323" t="s">
+        <v>40</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I323" s="2">
+        <f t="shared" ref="I323:I333" si="67">G323/300 * 5</f>
+        <v>0</v>
+      </c>
+      <c r="J323" s="2">
+        <f t="shared" ref="J323:J333" si="68">H323/300 * 5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="4:10">
+      <c r="D324" t="s">
+        <v>49</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I324" s="2">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="J324" s="2">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="4:10">
+      <c r="E325" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I325" s="2">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="J325" s="2">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="4:10">
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326" s="1">
+        <v>281</v>
+      </c>
+      <c r="F326" s="1">
+        <v>580</v>
+      </c>
+      <c r="G326" s="1">
+        <f>E326-281</f>
+        <v>0</v>
+      </c>
+      <c r="H326" s="1">
+        <f>580-F326</f>
+        <v>0</v>
+      </c>
+      <c r="I326" s="2">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="J326" s="2">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="4:10">
+      <c r="D327">
+        <v>1</v>
+      </c>
+      <c r="E327" s="1">
+        <v>391</v>
+      </c>
+      <c r="F327" s="1">
+        <v>580</v>
+      </c>
+      <c r="G327" s="1">
+        <f t="shared" ref="G327:G333" si="69">E327-281</f>
+        <v>110</v>
+      </c>
+      <c r="H327" s="1">
+        <f t="shared" ref="H327:H333" si="70">580-F327</f>
+        <v>0</v>
+      </c>
+      <c r="I327" s="2">
+        <f t="shared" si="67"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="J327" s="2">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="4:10">
+      <c r="D328">
+        <v>2</v>
+      </c>
+      <c r="E328" s="1">
+        <v>442</v>
+      </c>
+      <c r="F328" s="1">
+        <v>580</v>
+      </c>
+      <c r="G328" s="1">
+        <f t="shared" si="69"/>
+        <v>161</v>
+      </c>
+      <c r="H328" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I328" s="2">
+        <f t="shared" si="67"/>
+        <v>2.6833333333333331</v>
+      </c>
+      <c r="J328" s="2">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="4:10">
+      <c r="D329">
+        <v>3</v>
+      </c>
+      <c r="E329" s="1">
+        <v>547</v>
+      </c>
+      <c r="F329" s="1">
+        <v>235</v>
+      </c>
+      <c r="G329" s="1">
+        <f t="shared" si="69"/>
+        <v>266</v>
+      </c>
+      <c r="H329" s="1">
+        <f t="shared" si="70"/>
+        <v>345</v>
+      </c>
+      <c r="I329" s="2">
+        <f t="shared" si="67"/>
+        <v>4.4333333333333336</v>
+      </c>
+      <c r="J329" s="2">
+        <f t="shared" si="68"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="330" spans="4:10">
+      <c r="D330">
+        <v>4</v>
+      </c>
+      <c r="E330" s="1">
+        <v>281</v>
+      </c>
+      <c r="F330" s="1">
+        <v>235</v>
+      </c>
+      <c r="G330" s="1">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="H330" s="1">
+        <f t="shared" si="70"/>
+        <v>345</v>
+      </c>
+      <c r="I330" s="2">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="J330" s="2">
+        <f t="shared" si="68"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="331" spans="4:10">
+      <c r="D331">
+        <v>5</v>
+      </c>
+      <c r="E331" s="1">
+        <v>328</v>
+      </c>
+      <c r="F331" s="1">
+        <v>234</v>
+      </c>
+      <c r="G331" s="1">
+        <f t="shared" si="69"/>
+        <v>47</v>
+      </c>
+      <c r="H331" s="1">
+        <f t="shared" si="70"/>
+        <v>346</v>
+      </c>
+      <c r="I331" s="2">
+        <f t="shared" si="67"/>
+        <v>0.78333333333333344</v>
+      </c>
+      <c r="J331" s="2">
+        <f t="shared" si="68"/>
+        <v>5.7666666666666666</v>
+      </c>
+    </row>
+    <row r="332" spans="4:10">
+      <c r="D332">
+        <v>6</v>
+      </c>
+      <c r="E332" s="1">
+        <v>417</v>
+      </c>
+      <c r="F332" s="1">
+        <v>516</v>
+      </c>
+      <c r="G332" s="1">
+        <f t="shared" si="69"/>
+        <v>136</v>
+      </c>
+      <c r="H332" s="1">
+        <f t="shared" si="70"/>
+        <v>64</v>
+      </c>
+      <c r="I332" s="2">
+        <f t="shared" si="67"/>
+        <v>2.2666666666666666</v>
+      </c>
+      <c r="J332" s="2">
+        <f t="shared" si="68"/>
+        <v>1.0666666666666667</v>
+      </c>
+    </row>
+    <row r="333" spans="4:10">
+      <c r="D333">
+        <v>7</v>
+      </c>
+      <c r="E333" s="1">
+        <v>503</v>
+      </c>
+      <c r="F333" s="1">
+        <v>234</v>
+      </c>
+      <c r="G333" s="1">
+        <f t="shared" si="69"/>
+        <v>222</v>
+      </c>
+      <c r="H333" s="1">
+        <f t="shared" si="70"/>
+        <v>346</v>
+      </c>
+      <c r="I333" s="2">
+        <f t="shared" si="67"/>
+        <v>3.7</v>
+      </c>
+      <c r="J333" s="2">
+        <f t="shared" si="68"/>
+        <v>5.7666666666666666</v>
+      </c>
+    </row>
+    <row r="334" spans="4:10">
+      <c r="D334" t="s">
+        <v>40</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I334" s="2">
+        <f t="shared" ref="I334:I350" si="71">G334/300 * 5</f>
+        <v>0</v>
+      </c>
+      <c r="J334" s="2">
+        <f t="shared" ref="J334:J350" si="72">H334/300 * 5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="4:10">
+      <c r="E335" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I335" s="2">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="J335" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="4:10">
+      <c r="E336" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I336" s="2">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="J336" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="4:10">
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337" s="1">
+        <v>171</v>
+      </c>
+      <c r="F337" s="1">
+        <v>630</v>
+      </c>
+      <c r="G337" s="1">
+        <f>E337-171</f>
+        <v>0</v>
+      </c>
+      <c r="H337" s="1">
+        <f>630-F337</f>
+        <v>0</v>
+      </c>
+      <c r="I337" s="2">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="J337" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="4:10">
+      <c r="D338">
+        <v>1</v>
+      </c>
+      <c r="E338" s="1">
+        <v>239</v>
+      </c>
+      <c r="F338" s="1">
+        <v>630</v>
+      </c>
+      <c r="G338" s="1">
+        <f t="shared" ref="G338:G350" si="73">E338-171</f>
+        <v>68</v>
+      </c>
+      <c r="H338" s="1">
+        <f t="shared" ref="H338:H350" si="74">630-F338</f>
+        <v>0</v>
+      </c>
+      <c r="I338" s="2">
+        <f t="shared" si="71"/>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="J338" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="4:10">
+      <c r="D339">
+        <v>2</v>
+      </c>
+      <c r="E339" s="1">
+        <v>513</v>
+      </c>
+      <c r="F339" s="1">
+        <v>630</v>
+      </c>
+      <c r="G339" s="1">
+        <f t="shared" si="73"/>
+        <v>342</v>
+      </c>
+      <c r="H339" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="I339" s="2">
+        <f t="shared" si="71"/>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="J339" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="4:10">
+      <c r="D340">
+        <v>3</v>
+      </c>
+      <c r="E340" s="1">
+        <v>580</v>
+      </c>
+      <c r="F340" s="1">
+        <v>286</v>
+      </c>
+      <c r="G340" s="1">
+        <f t="shared" si="73"/>
+        <v>409</v>
+      </c>
+      <c r="H340" s="1">
+        <f t="shared" si="74"/>
+        <v>344</v>
+      </c>
+      <c r="I340" s="2">
+        <f t="shared" si="71"/>
+        <v>6.8166666666666664</v>
+      </c>
+      <c r="J340" s="2">
+        <f t="shared" si="72"/>
+        <v>5.7333333333333334</v>
+      </c>
+    </row>
+    <row r="341" spans="4:10">
+      <c r="D341">
+        <v>4</v>
+      </c>
+      <c r="E341" s="1">
+        <v>168</v>
+      </c>
+      <c r="F341" s="1">
+        <v>286</v>
+      </c>
+      <c r="G341" s="1">
+        <f t="shared" si="73"/>
+        <v>-3</v>
+      </c>
+      <c r="H341" s="1">
+        <f t="shared" si="74"/>
+        <v>344</v>
+      </c>
+      <c r="I341" s="2">
+        <f t="shared" si="71"/>
+        <v>-0.05</v>
+      </c>
+      <c r="J341" s="2">
+        <f t="shared" si="72"/>
+        <v>5.7333333333333334</v>
+      </c>
+    </row>
+    <row r="342" spans="4:10">
+      <c r="D342">
+        <v>5</v>
+      </c>
+      <c r="E342" s="1">
+        <v>290</v>
+      </c>
+      <c r="F342" s="1">
+        <v>631</v>
+      </c>
+      <c r="G342" s="1">
+        <f t="shared" si="73"/>
+        <v>119</v>
+      </c>
+      <c r="H342" s="1">
+        <f t="shared" si="74"/>
+        <v>-1</v>
+      </c>
+      <c r="I342" s="2">
+        <f t="shared" si="71"/>
+        <v>1.9833333333333334</v>
+      </c>
+      <c r="J342" s="2">
+        <f t="shared" si="72"/>
+        <v>-1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="4:10">
+      <c r="D343">
+        <v>6</v>
+      </c>
+      <c r="E343" s="1">
+        <v>460</v>
+      </c>
+      <c r="F343" s="1">
+        <v>631</v>
+      </c>
+      <c r="G343" s="1">
+        <f t="shared" si="73"/>
+        <v>289</v>
+      </c>
+      <c r="H343" s="1">
+        <f t="shared" si="74"/>
+        <v>-1</v>
+      </c>
+      <c r="I343" s="2">
+        <f t="shared" si="71"/>
+        <v>4.8166666666666664</v>
+      </c>
+      <c r="J343" s="2">
+        <f t="shared" si="72"/>
+        <v>-1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="4:10">
+      <c r="D344">
+        <v>7</v>
+      </c>
+      <c r="E344" s="1">
+        <v>375</v>
+      </c>
+      <c r="F344" s="1">
+        <v>362</v>
+      </c>
+      <c r="G344" s="1">
+        <f t="shared" si="73"/>
+        <v>204</v>
+      </c>
+      <c r="H344" s="1">
+        <f t="shared" si="74"/>
+        <v>268</v>
+      </c>
+      <c r="I344" s="2">
+        <f t="shared" si="71"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="J344" s="2">
+        <f t="shared" si="72"/>
+        <v>4.4666666666666668</v>
+      </c>
+    </row>
+    <row r="345" spans="4:10">
+      <c r="D345">
+        <v>8</v>
+      </c>
+      <c r="E345" s="1">
+        <v>215</v>
+      </c>
+      <c r="F345" s="1">
+        <v>285</v>
+      </c>
+      <c r="G345" s="1">
+        <f t="shared" si="73"/>
+        <v>44</v>
+      </c>
+      <c r="H345" s="1">
+        <f t="shared" si="74"/>
+        <v>345</v>
+      </c>
+      <c r="I345" s="2">
+        <f t="shared" si="71"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="J345" s="2">
+        <f t="shared" si="72"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="346" spans="4:10">
+      <c r="D346">
+        <v>9</v>
+      </c>
+      <c r="E346" s="1">
+        <v>268</v>
+      </c>
+      <c r="F346" s="1">
+        <v>569</v>
+      </c>
+      <c r="G346" s="1">
+        <f t="shared" si="73"/>
+        <v>97</v>
+      </c>
+      <c r="H346" s="1">
+        <f t="shared" si="74"/>
+        <v>61</v>
+      </c>
+      <c r="I346" s="2">
+        <f t="shared" si="71"/>
+        <v>1.6166666666666665</v>
+      </c>
+      <c r="J346" s="2">
+        <f t="shared" si="72"/>
+        <v>1.0166666666666666</v>
+      </c>
+    </row>
+    <row r="347" spans="4:10">
+      <c r="D347">
+        <v>10</v>
+      </c>
+      <c r="E347" s="1">
+        <v>351</v>
+      </c>
+      <c r="F347" s="1">
+        <v>285</v>
+      </c>
+      <c r="G347" s="1">
+        <f t="shared" si="73"/>
+        <v>180</v>
+      </c>
+      <c r="H347" s="1">
+        <f t="shared" si="74"/>
+        <v>345</v>
+      </c>
+      <c r="I347" s="2">
+        <f t="shared" si="71"/>
+        <v>3</v>
+      </c>
+      <c r="J347" s="2">
+        <f t="shared" si="72"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="348" spans="4:10">
+      <c r="D348">
+        <v>11</v>
+      </c>
+      <c r="E348" s="1">
+        <v>398</v>
+      </c>
+      <c r="F348" s="1">
+        <v>285</v>
+      </c>
+      <c r="G348" s="1">
+        <f t="shared" si="73"/>
+        <v>227</v>
+      </c>
+      <c r="H348" s="1">
+        <f t="shared" si="74"/>
+        <v>345</v>
+      </c>
+      <c r="I348" s="2">
+        <f t="shared" si="71"/>
+        <v>3.7833333333333337</v>
+      </c>
+      <c r="J348" s="2">
+        <f t="shared" si="72"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="349" spans="4:10">
+      <c r="D349">
+        <v>12</v>
+      </c>
+      <c r="E349" s="1">
+        <v>485</v>
+      </c>
+      <c r="F349" s="1">
+        <v>569</v>
+      </c>
+      <c r="G349" s="1">
+        <f t="shared" si="73"/>
+        <v>314</v>
+      </c>
+      <c r="H349" s="1">
+        <f t="shared" si="74"/>
+        <v>61</v>
+      </c>
+      <c r="I349" s="2">
+        <f t="shared" si="71"/>
+        <v>5.2333333333333334</v>
+      </c>
+      <c r="J349" s="2">
+        <f t="shared" si="72"/>
+        <v>1.0166666666666666</v>
+      </c>
+    </row>
+    <row r="350" spans="4:10">
+      <c r="D350">
+        <v>13</v>
+      </c>
+      <c r="E350" s="1">
+        <v>535</v>
+      </c>
+      <c r="F350" s="1">
+        <v>285</v>
+      </c>
+      <c r="G350" s="1">
+        <f t="shared" si="73"/>
+        <v>364</v>
+      </c>
+      <c r="H350" s="1">
+        <f t="shared" si="74"/>
+        <v>345</v>
+      </c>
+      <c r="I350" s="2">
+        <f t="shared" si="71"/>
+        <v>6.0666666666666664</v>
+      </c>
+      <c r="J350" s="2">
+        <f t="shared" si="72"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="351" spans="4:10">
+      <c r="D351" t="s">
+        <v>40</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I351" s="2">
+        <f t="shared" ref="I351:I363" si="75">G351/300 * 5</f>
+        <v>0</v>
+      </c>
+      <c r="J351" s="2">
+        <f t="shared" ref="J351:J363" si="76">H351/300 * 5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="4:10">
+      <c r="E352" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I352" s="2">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="J352" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="4:10">
+      <c r="E353" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I353" s="2">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="J353" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="4:10">
+      <c r="E354" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I354" s="2">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="J354" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="4:10">
+      <c r="E355" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I355" s="2">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="J355" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="4:10">
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356" s="2">
+        <v>220</v>
+      </c>
+      <c r="F356" s="1">
+        <v>615</v>
+      </c>
+      <c r="G356" s="1">
+        <f>E356-220</f>
+        <v>0</v>
+      </c>
+      <c r="H356" s="1">
+        <f>615-F356</f>
+        <v>0</v>
+      </c>
+      <c r="I356" s="2">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="J356" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="4:10">
+      <c r="D357">
+        <v>1</v>
+      </c>
+      <c r="E357" s="2">
+        <v>271</v>
+      </c>
+      <c r="F357" s="1">
+        <v>615</v>
+      </c>
+      <c r="G357" s="1">
+        <f t="shared" ref="G357:G363" si="77">E357-220</f>
+        <v>51</v>
+      </c>
+      <c r="H357" s="1">
+        <f t="shared" ref="H357:H363" si="78">615-F357</f>
+        <v>0</v>
+      </c>
+      <c r="I357" s="2">
+        <f t="shared" si="75"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="J357" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="4:10">
+      <c r="D358">
+        <v>2</v>
+      </c>
+      <c r="E358" s="2">
+        <v>462</v>
+      </c>
+      <c r="F358" s="1">
+        <v>274</v>
+      </c>
+      <c r="G358" s="1">
+        <f t="shared" si="77"/>
+        <v>242</v>
+      </c>
+      <c r="H358" s="1">
+        <f t="shared" si="78"/>
+        <v>341</v>
+      </c>
+      <c r="I358" s="2">
+        <f t="shared" si="75"/>
+        <v>4.0333333333333332</v>
+      </c>
+      <c r="J358" s="2">
+        <f t="shared" si="76"/>
+        <v>5.6833333333333336</v>
+      </c>
+    </row>
+    <row r="359" spans="4:10">
+      <c r="D359">
+        <v>3</v>
+      </c>
+      <c r="E359" s="1">
+        <v>413</v>
+      </c>
+      <c r="F359" s="1">
+        <v>274</v>
+      </c>
+      <c r="G359" s="1">
+        <f t="shared" si="77"/>
+        <v>193</v>
+      </c>
+      <c r="H359" s="1">
+        <f t="shared" si="78"/>
+        <v>341</v>
+      </c>
+      <c r="I359" s="2">
+        <f t="shared" si="75"/>
+        <v>3.2166666666666668</v>
+      </c>
+      <c r="J359" s="2">
+        <f t="shared" si="76"/>
+        <v>5.6833333333333336</v>
+      </c>
+    </row>
+    <row r="360" spans="4:10">
+      <c r="D360">
+        <v>4</v>
+      </c>
+      <c r="E360" s="1">
+        <v>412</v>
+      </c>
+      <c r="F360" s="1">
+        <v>615</v>
+      </c>
+      <c r="G360" s="1">
+        <f t="shared" si="77"/>
+        <v>192</v>
+      </c>
+      <c r="H360" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I360" s="2">
+        <f t="shared" si="75"/>
+        <v>3.2</v>
+      </c>
+      <c r="J360" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="4:10">
+      <c r="D361">
+        <v>5</v>
+      </c>
+      <c r="E361" s="1">
+        <v>463</v>
+      </c>
+      <c r="F361" s="1">
+        <v>615</v>
+      </c>
+      <c r="G361" s="1">
+        <f t="shared" si="77"/>
+        <v>243</v>
+      </c>
+      <c r="H361" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I361" s="2">
+        <f t="shared" si="75"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="J361" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="4:10">
+      <c r="D362">
+        <v>6</v>
+      </c>
+      <c r="E362" s="1">
+        <v>268</v>
+      </c>
+      <c r="F362" s="1">
+        <v>274</v>
+      </c>
+      <c r="G362" s="1">
+        <f t="shared" si="77"/>
+        <v>48</v>
+      </c>
+      <c r="H362" s="1">
+        <f t="shared" si="78"/>
+        <v>341</v>
+      </c>
+      <c r="I362" s="2">
+        <f t="shared" si="75"/>
+        <v>0.8</v>
+      </c>
+      <c r="J362" s="2">
+        <f t="shared" si="76"/>
+        <v>5.6833333333333336</v>
+      </c>
+    </row>
+    <row r="363" spans="4:10">
+      <c r="D363">
+        <v>7</v>
+      </c>
+      <c r="E363" s="1">
+        <v>220</v>
+      </c>
+      <c r="F363" s="1">
+        <v>274</v>
+      </c>
+      <c r="G363" s="1">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="H363" s="1">
+        <f t="shared" si="78"/>
+        <v>341</v>
+      </c>
+      <c r="I363" s="2">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="J363" s="2">
+        <f t="shared" si="76"/>
+        <v>5.6833333333333336</v>
+      </c>
+    </row>
+    <row r="364" spans="4:10">
+      <c r="D364" t="s">
+        <v>40</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I364" s="2">
+        <f t="shared" ref="I364:I376" si="79">G364/300 * 5</f>
+        <v>0</v>
+      </c>
+      <c r="J364" s="2">
+        <f t="shared" ref="J364:J376" si="80">H364/300 * 5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="4:10">
+      <c r="E365" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I365" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="J365" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="4:10">
+      <c r="E366" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I366" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="J366" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="4:10">
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367" s="1">
+        <v>114</v>
+      </c>
+      <c r="F367" s="1">
+        <v>620</v>
+      </c>
+      <c r="G367" s="1">
+        <f>E367-114</f>
+        <v>0</v>
+      </c>
+      <c r="H367" s="1">
+        <f>620-F367</f>
+        <v>0</v>
+      </c>
+      <c r="I367" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="J367" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="4:10">
+      <c r="D368">
+        <v>1</v>
+      </c>
+      <c r="E368" s="1">
+        <v>214</v>
+      </c>
+      <c r="F368" s="1">
+        <v>620</v>
+      </c>
+      <c r="G368" s="1">
+        <f t="shared" ref="G368:G376" si="81">E368-114</f>
+        <v>100</v>
+      </c>
+      <c r="H368" s="1">
+        <f t="shared" ref="H368:H376" si="82">620-F368</f>
+        <v>0</v>
+      </c>
+      <c r="I368" s="2">
+        <f t="shared" si="79"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="J368" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="4:10">
+      <c r="D369">
+        <v>2</v>
+      </c>
+      <c r="E369" s="1">
+        <v>257</v>
+      </c>
+      <c r="F369" s="1">
+        <v>620</v>
+      </c>
+      <c r="G369" s="1">
+        <f t="shared" si="81"/>
+        <v>143</v>
+      </c>
+      <c r="H369" s="1">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="I369" s="2">
+        <f t="shared" si="79"/>
+        <v>2.3833333333333333</v>
+      </c>
+      <c r="J369" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="4:10">
+      <c r="D370">
+        <v>3</v>
+      </c>
+      <c r="E370" s="1">
+        <v>257</v>
+      </c>
+      <c r="F370" s="1">
+        <v>453</v>
+      </c>
+      <c r="G370" s="1">
+        <f t="shared" si="81"/>
+        <v>143</v>
+      </c>
+      <c r="H370" s="1">
+        <f t="shared" si="82"/>
+        <v>167</v>
+      </c>
+      <c r="I370" s="2">
+        <f t="shared" si="79"/>
+        <v>2.3833333333333333</v>
+      </c>
+      <c r="J370" s="2">
+        <f t="shared" si="80"/>
+        <v>2.7833333333333332</v>
+      </c>
+    </row>
+    <row r="371" spans="4:10">
+      <c r="D371">
+        <v>4</v>
+      </c>
+      <c r="E371" s="1">
+        <v>356</v>
+      </c>
+      <c r="F371" s="1">
+        <v>274</v>
+      </c>
+      <c r="G371" s="1">
+        <f t="shared" si="81"/>
+        <v>242</v>
+      </c>
+      <c r="H371" s="1">
+        <f t="shared" si="82"/>
+        <v>346</v>
+      </c>
+      <c r="I371" s="2">
+        <f t="shared" si="79"/>
+        <v>4.0333333333333332</v>
+      </c>
+      <c r="J371" s="2">
+        <f t="shared" si="80"/>
+        <v>5.7666666666666666</v>
+      </c>
+    </row>
+    <row r="372" spans="4:10">
+      <c r="D372">
+        <v>5</v>
+      </c>
+      <c r="E372" s="1">
+        <v>114</v>
+      </c>
+      <c r="F372" s="1">
+        <v>274</v>
+      </c>
+      <c r="G372" s="1">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="H372" s="1">
+        <f t="shared" si="82"/>
+        <v>346</v>
+      </c>
+      <c r="I372" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="J372" s="2">
+        <f t="shared" si="80"/>
+        <v>5.7666666666666666</v>
+      </c>
+    </row>
+    <row r="373" spans="4:10">
+      <c r="D373">
+        <v>6</v>
+      </c>
+      <c r="E373" s="1">
+        <v>214</v>
+      </c>
+      <c r="F373" s="1">
+        <v>453</v>
+      </c>
+      <c r="G373" s="1">
+        <f t="shared" si="81"/>
+        <v>100</v>
+      </c>
+      <c r="H373" s="1">
+        <f t="shared" si="82"/>
+        <v>167</v>
+      </c>
+      <c r="I373" s="2">
+        <f t="shared" si="79"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="J373" s="2">
+        <f t="shared" si="80"/>
+        <v>2.7833333333333332</v>
+      </c>
+    </row>
+    <row r="374" spans="4:10">
+      <c r="D374">
+        <v>7</v>
+      </c>
+      <c r="E374" s="1">
+        <v>164</v>
+      </c>
+      <c r="F374" s="1">
+        <v>273</v>
+      </c>
+      <c r="G374" s="1">
+        <f t="shared" si="81"/>
+        <v>50</v>
+      </c>
+      <c r="H374" s="1">
+        <f t="shared" si="82"/>
+        <v>347</v>
+      </c>
+      <c r="I374" s="2">
+        <f t="shared" si="79"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="J374" s="2">
+        <f t="shared" si="80"/>
+        <v>5.7833333333333332</v>
+      </c>
+    </row>
+    <row r="375" spans="4:10">
+      <c r="D375">
+        <v>8</v>
+      </c>
+      <c r="E375" s="1">
+        <v>235</v>
+      </c>
+      <c r="F375" s="1">
+        <v>399</v>
+      </c>
+      <c r="G375" s="1">
+        <f t="shared" si="81"/>
+        <v>121</v>
+      </c>
+      <c r="H375" s="1">
+        <f t="shared" si="82"/>
+        <v>221</v>
+      </c>
+      <c r="I375" s="2">
+        <f t="shared" si="79"/>
+        <v>2.0166666666666666</v>
+      </c>
+      <c r="J375" s="2">
+        <f t="shared" si="80"/>
+        <v>3.6833333333333336</v>
+      </c>
+    </row>
+    <row r="376" spans="4:10">
+      <c r="D376">
+        <v>9</v>
+      </c>
+      <c r="E376" s="1">
+        <v>305</v>
+      </c>
+      <c r="F376" s="1">
+        <v>273</v>
+      </c>
+      <c r="G376" s="1">
+        <f t="shared" si="81"/>
+        <v>191</v>
+      </c>
+      <c r="H376" s="1">
+        <f t="shared" si="82"/>
+        <v>347</v>
+      </c>
+      <c r="I376" s="2">
+        <f t="shared" si="79"/>
+        <v>3.1833333333333336</v>
+      </c>
+      <c r="J376" s="2">
+        <f t="shared" si="80"/>
+        <v>5.7833333333333332</v>
+      </c>
+    </row>
+    <row r="377" spans="4:10">
+      <c r="D377" t="s">
+        <v>40</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I377" s="2">
+        <f t="shared" ref="I377:I390" si="83">G377/300 * 5</f>
+        <v>0</v>
+      </c>
+      <c r="J377" s="2">
+        <f t="shared" ref="J377:J390" si="84">H377/300 * 5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="4:10">
+      <c r="E378" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I378" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="J378" s="2">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="4:10">
+      <c r="D379" t="s">
+        <v>49</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I379" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="J379" s="2">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="4:10">
+      <c r="E380" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I380" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="J380" s="2">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="4:10">
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381" s="1">
+        <v>241</v>
+      </c>
+      <c r="F381" s="1">
+        <v>632</v>
+      </c>
+      <c r="G381" s="1">
+        <f>E381-241</f>
+        <v>0</v>
+      </c>
+      <c r="H381" s="1">
+        <f>632-F381</f>
+        <v>0</v>
+      </c>
+      <c r="I381" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="J381" s="2">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="4:10">
+      <c r="D382">
+        <v>2</v>
+      </c>
+      <c r="E382" s="1">
+        <v>464</v>
+      </c>
+      <c r="F382" s="1">
+        <v>632</v>
+      </c>
+      <c r="G382" s="1">
+        <f t="shared" ref="G382:G390" si="85">E382-241</f>
+        <v>223</v>
+      </c>
+      <c r="H382" s="1">
+        <f t="shared" ref="H382:H390" si="86">632-F382</f>
+        <v>0</v>
+      </c>
+      <c r="I382" s="2">
+        <f t="shared" si="83"/>
+        <v>3.7166666666666663</v>
+      </c>
+      <c r="J382" s="2">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="4:10">
+      <c r="D383">
+        <v>3</v>
+      </c>
+      <c r="E383" s="1">
+        <v>464</v>
+      </c>
+      <c r="F383" s="1">
+        <v>287</v>
+      </c>
+      <c r="G383" s="1">
+        <f t="shared" si="85"/>
+        <v>223</v>
+      </c>
+      <c r="H383" s="1">
+        <f t="shared" si="86"/>
+        <v>345</v>
+      </c>
+      <c r="I383" s="2">
+        <f t="shared" si="83"/>
+        <v>3.7166666666666663</v>
+      </c>
+      <c r="J383" s="2">
+        <f t="shared" si="84"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="384" spans="4:10">
+      <c r="D384">
+        <v>4</v>
+      </c>
+      <c r="E384" s="1">
+        <v>267</v>
+      </c>
+      <c r="F384" s="1">
+        <v>287</v>
+      </c>
+      <c r="G384" s="1">
+        <f t="shared" si="85"/>
+        <v>26</v>
+      </c>
+      <c r="H384" s="1">
+        <f t="shared" si="86"/>
+        <v>345</v>
+      </c>
+      <c r="I384" s="2">
+        <f t="shared" si="83"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="J384" s="2">
+        <f t="shared" si="84"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="385" spans="4:10">
+      <c r="D385">
+        <v>5</v>
+      </c>
+      <c r="E385" s="1">
+        <v>241</v>
+      </c>
+      <c r="F385" s="1">
+        <v>329</v>
+      </c>
+      <c r="G385" s="1">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H385" s="1">
+        <f t="shared" si="86"/>
+        <v>303</v>
+      </c>
+      <c r="I385" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="J385" s="2">
+        <f t="shared" si="84"/>
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="386" spans="4:10">
+      <c r="D386">
+        <v>6</v>
+      </c>
+      <c r="E386" s="1">
+        <v>241</v>
+      </c>
+      <c r="F386" s="1">
+        <v>632</v>
+      </c>
+      <c r="G386" s="1">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H386" s="1">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="I386" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="J386" s="2">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="4:10">
+      <c r="D387">
+        <v>7</v>
+      </c>
+      <c r="E387" s="1">
+        <v>410</v>
+      </c>
+      <c r="F387" s="1">
+        <v>329</v>
+      </c>
+      <c r="G387" s="1">
+        <f t="shared" si="85"/>
+        <v>169</v>
+      </c>
+      <c r="H387" s="1">
+        <f t="shared" si="86"/>
+        <v>303</v>
+      </c>
+      <c r="I387" s="2">
+        <f t="shared" si="83"/>
+        <v>2.8166666666666669</v>
+      </c>
+      <c r="J387" s="2">
+        <f t="shared" si="84"/>
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="388" spans="4:10">
+      <c r="D388">
+        <v>8</v>
+      </c>
+      <c r="E388" s="1">
+        <v>465</v>
+      </c>
+      <c r="F388" s="1">
+        <v>330</v>
+      </c>
+      <c r="G388" s="1">
+        <f t="shared" si="85"/>
+        <v>224</v>
+      </c>
+      <c r="H388" s="1">
+        <f t="shared" si="86"/>
+        <v>302</v>
+      </c>
+      <c r="I388" s="2">
+        <f t="shared" si="83"/>
+        <v>3.7333333333333334</v>
+      </c>
+      <c r="J388" s="2">
+        <f t="shared" si="84"/>
+        <v>5.0333333333333332</v>
+      </c>
+    </row>
+    <row r="389" spans="4:10">
+      <c r="D389">
+        <v>9</v>
+      </c>
+      <c r="E389" s="1">
+        <v>319</v>
+      </c>
+      <c r="F389" s="1">
+        <v>584</v>
+      </c>
+      <c r="G389" s="1">
+        <f t="shared" si="85"/>
+        <v>78</v>
+      </c>
+      <c r="H389" s="1">
+        <f t="shared" si="86"/>
+        <v>48</v>
+      </c>
+      <c r="I389" s="2">
+        <f t="shared" si="83"/>
+        <v>1.3</v>
+      </c>
+      <c r="J389" s="2">
+        <f t="shared" si="84"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="390" spans="4:10">
+      <c r="D390">
+        <v>10</v>
+      </c>
+      <c r="E390" s="1">
+        <v>465</v>
+      </c>
+      <c r="F390" s="1">
+        <v>584</v>
+      </c>
+      <c r="G390" s="1">
+        <f t="shared" si="85"/>
+        <v>224</v>
+      </c>
+      <c r="H390" s="1">
+        <f t="shared" si="86"/>
+        <v>48</v>
+      </c>
+      <c r="I390" s="2">
+        <f t="shared" si="83"/>
+        <v>3.7333333333333334</v>
+      </c>
+      <c r="J390" s="2">
+        <f t="shared" si="84"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="391" spans="4:10">
+      <c r="D391" t="s">
+        <v>40</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="392" spans="4:10">
+      <c r="D392" t="s">
+        <v>16</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="393" spans="4:10">
+      <c r="E393" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
